--- a/outputs/SORs/SOR Testing_IPS Gearing Division.xlsx
+++ b/outputs/SORs/SOR Testing_IPS Gearing Division.xlsx
@@ -923,7 +923,7 @@
         <v>0.0179</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>0</v>
+        <v>0.0755</v>
       </c>
       <c r="M4" s="1" t="n">
         <v>0</v>
@@ -1123,9 +1123,7 @@
       <c r="K7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="1" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="L7" s="1"/>
       <c r="M7" s="1" t="n">
         <v>0.2</v>
       </c>
@@ -1174,7 +1172,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1245,7 +1243,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1316,7 +1314,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1325,19 +1323,19 @@
         <v>0.0717</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>0.068</v>
+        <v>0.0683</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>0.0759</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>0.2158</v>
+        <v>0.216</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>0.0927</v>
+        <v>0.099</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>0</v>
+        <v>0.0848</v>
       </c>
       <c r="M10" s="1" t="n">
         <v>0</v>
@@ -1969,6 +1967,67 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>0.0776</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2937,7 +2996,7 @@
         <v>0.0278</v>
       </c>
       <c r="L4" s="14" t="n">
-        <v>0</v>
+        <v>0.0286</v>
       </c>
       <c r="M4" s="14" t="n">
         <v>0</v>
@@ -3121,9 +3180,7 @@
       <c r="K7" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="14"/>
       <c r="M7" s="14" t="n">
         <v>1</v>
       </c>
@@ -3172,7 +3229,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3243,7 +3300,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3314,7 +3371,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3335,40 +3392,40 @@
         <v>0</v>
       </c>
       <c r="L10" s="14" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0234</v>
       </c>
       <c r="M10" s="14" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="14" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="14" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="14" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="14" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R10" s="14" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T10" s="14" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="14" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V10" s="14" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3618,7 +3675,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.0189</v>
+        <v>0.0192</v>
       </c>
       <c r="H4" s="15" t="n">
         <v>0</v>
@@ -3627,46 +3684,46 @@
         <v>0</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>0.0186</v>
+        <v>0.019</v>
       </c>
       <c r="K4" s="15" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4048,16 +4105,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="16" t="n">
+        <v>0.0476</v>
+      </c>
+      <c r="J4" s="16" t="n">
+        <v>0.0455</v>
+      </c>
+      <c r="K4" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="16" t="n">
         <v>0.05</v>
-      </c>
-      <c r="J4" s="16" t="n">
-        <v>0.0476</v>
-      </c>
-      <c r="K4" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="16" t="n">
-        <v>0</v>
       </c>
       <c r="M4" s="16" t="n">
         <v>0</v>
@@ -4221,7 +4278,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4292,7 +4349,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4363,7 +4420,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -6042,7 +6099,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="20" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -6113,7 +6170,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="20" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -6184,7 +6241,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="20" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -6205,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="20" t="n">
-        <v>0</v>
+        <v>0.0192</v>
       </c>
       <c r="M9" s="20" t="n">
         <v>0</v>
@@ -7081,7 +7138,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="23" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -7152,7 +7209,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="23" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -7223,7 +7280,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="23" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -7244,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M6" s="23" t="n">
         <v>0.0833333333333333</v>
@@ -7702,7 +7759,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="24" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -7773,7 +7830,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="24" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -7844,7 +7901,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="24" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -8213,7 +8270,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="25" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -8284,7 +8341,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="25" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -8355,7 +8412,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="25" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -8874,9 +8931,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="27"/>
-      <c r="L4" s="27" t="n">
-        <v>0</v>
-      </c>
+      <c r="L4" s="27"/>
       <c r="M4" s="27" t="n">
         <v>0</v>
       </c>
@@ -9333,7 +9388,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="28" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -9404,7 +9459,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="28" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -9475,28 +9530,28 @@
         <v>31</v>
       </c>
       <c r="E9" s="28" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="28" t="n">
-        <v>0.0196</v>
+        <v>0.02</v>
       </c>
       <c r="H9" s="28" t="n">
-        <v>0.0208</v>
+        <v>0.0213</v>
       </c>
       <c r="I9" s="28" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="28" t="n">
-        <v>0.04</v>
+        <v>0.0408</v>
       </c>
       <c r="K9" s="28" t="n">
         <v>0</v>
       </c>
       <c r="L9" s="28" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M9" s="28" t="n">
         <v>0</v>
@@ -9791,43 +9846,43 @@
         <v>0</v>
       </c>
       <c r="K4" s="29" t="n">
-        <v>0.0263</v>
+        <v>0.025</v>
       </c>
       <c r="L4" s="29" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="29" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="29" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="29" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="29" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="29" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="29" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="29" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -9976,9 +10031,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="29"/>
-      <c r="L7" s="29" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="29"/>
       <c r="M7" s="29" t="n">
         <v>1</v>
       </c>
@@ -10027,7 +10080,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="29" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -10098,7 +10151,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="29" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -10169,7 +10222,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="29" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -11064,7 +11117,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="30" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -11135,7 +11188,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="30" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -11206,7 +11259,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="30" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -11227,40 +11280,40 @@
         <v>0</v>
       </c>
       <c r="L10" s="30" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M10" s="30" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="30" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="30" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="30" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R10" s="30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S10" s="30" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T10" s="30" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="30" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V10" s="30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" s="30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11575,7 +11628,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="31" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -11618,7 +11671,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="31" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -12075,7 +12128,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="32" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -12146,7 +12199,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="32" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -12217,7 +12270,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="32" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -12235,43 +12288,43 @@
         <v>0.0139</v>
       </c>
       <c r="K9" s="32" t="n">
-        <v>0</v>
+        <v>0.0045</v>
       </c>
       <c r="L9" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0045</v>
       </c>
       <c r="M9" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N9" s="32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O9" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R9" s="32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S9" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T9" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U9" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V9" s="32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W9" s="32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12548,9 +12601,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="33"/>
-      <c r="L5" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="L5" s="33"/>
       <c r="M5" s="33" t="n">
         <v>0</v>
       </c>
@@ -12755,7 +12806,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -13138,7 +13189,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="36" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -13369,9 +13420,7 @@
       <c r="K3" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="L3" s="37" t="n">
-        <v>0</v>
-      </c>
+      <c r="L3" s="37"/>
       <c r="M3" s="37" t="n">
         <v>0</v>
       </c>
@@ -13505,7 +13554,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="38" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13556,7 +13605,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="38" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13692,7 +13741,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="39" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13745,7 +13794,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="39" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13798,7 +13847,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="39" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -14165,7 +14214,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -14236,7 +14285,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -14307,7 +14356,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -14328,7 +14377,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.3333</v>
       </c>
       <c r="M7" s="4" t="n">
         <v>0.0833333333333333</v>
@@ -14824,9 +14873,7 @@
         <v>0.6667</v>
       </c>
       <c r="K7" s="5"/>
-      <c r="L7" s="5" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="L7" s="5"/>
       <c r="M7" s="5" t="n">
         <v>0.666666666666667</v>
       </c>
@@ -14875,7 +14922,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -14946,7 +14993,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -15017,7 +15064,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -15333,43 +15380,43 @@
         <v>0</v>
       </c>
       <c r="K4" s="6" t="n">
-        <v>0.013</v>
+        <v>0.0128</v>
       </c>
       <c r="L4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -15526,9 +15573,7 @@
       <c r="K7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="6"/>
       <c r="M7" s="6" t="n">
         <v>1</v>
       </c>
@@ -15577,7 +15622,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -15648,7 +15693,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -15719,7 +15764,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -15728,13 +15773,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0179</v>
+        <v>0.0182</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0182</v>
+        <v>0.0185</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.0359</v>
+        <v>0.0366</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
@@ -16029,49 +16074,49 @@
         <v>0</v>
       </c>
       <c r="I4" s="7" t="n">
+        <v>0.0278</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <v>0.0272</v>
+      </c>
+      <c r="K4" s="7" t="n">
         <v>0.0286</v>
       </c>
-      <c r="J4" s="7" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="K4" s="7" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0882</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -16210,7 +16255,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -16281,7 +16326,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -16352,7 +16397,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -17019,7 +17064,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -17090,7 +17135,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -17161,7 +17206,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -17182,7 +17227,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M7" s="9" t="n">
         <v>0.0833333333333333</v>

--- a/outputs/SORs/SOR Testing_IPS Gearing Division.xlsx
+++ b/outputs/SORs/SOR Testing_IPS Gearing Division.xlsx
@@ -760,7 +760,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0</v>
+        <v>0.1607</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -831,7 +831,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0</v>
+        <v>0.1607</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -902,7 +902,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0</v>
+        <v>0.1607</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -926,37 +926,37 @@
         <v>0.0755</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0</v>
+        <v>0.0321416666666667</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0</v>
+        <v>0.096425</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0</v>
+        <v>0.0321416666666667</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0</v>
+        <v>0.0321416666666667</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0</v>
+        <v>0.0321416666666667</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>0.096425</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>0.0321416666666667</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0</v>
+        <v>0.0321416666666667</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0</v>
+        <v>0.0321416666666667</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0</v>
+        <v>0.096425</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0</v>
+        <v>0.3857</v>
       </c>
     </row>
     <row r="5">
@@ -1172,7 +1172,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.4023</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1243,7 +1243,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.4023</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1314,7 +1314,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.4023</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1338,37 +1338,37 @@
         <v>0.0848</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>0</v>
+        <v>0.0804583333333333</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0</v>
+        <v>0.241375</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0</v>
+        <v>0.0804583333333333</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0</v>
+        <v>0.0804583333333333</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>0</v>
+        <v>0.0804583333333333</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>0.241375</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0</v>
+        <v>0.0804583333333333</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0</v>
+        <v>0.0804583333333333</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0</v>
+        <v>0.0804583333333333</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0</v>
+        <v>0.241375</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0</v>
+        <v>0.9655</v>
       </c>
     </row>
   </sheetData>
@@ -1981,7 +1981,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="11" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
@@ -2833,7 +2833,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0</v>
+        <v>0.0811</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2904,7 +2904,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0</v>
+        <v>0.0811</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2975,7 +2975,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0</v>
+        <v>0.0811</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2999,37 +2999,37 @@
         <v>0.0286</v>
       </c>
       <c r="M4" s="14" t="n">
-        <v>0</v>
+        <v>0.0162166666666667</v>
       </c>
       <c r="N4" s="14" t="n">
-        <v>0</v>
+        <v>0.04865</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0</v>
+        <v>0.0162166666666667</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0</v>
+        <v>0.0162166666666667</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0</v>
+        <v>0.0162166666666667</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0</v>
+        <v>0.04865</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0</v>
+        <v>0.0162166666666667</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0</v>
+        <v>0.0162166666666667</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0</v>
+        <v>0.0162166666666667</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0</v>
+        <v>0.04865</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0</v>
+        <v>0.1946</v>
       </c>
     </row>
     <row r="5">
@@ -3229,7 +3229,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.0776</v>
+        <v>0.037</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3300,7 +3300,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.0776</v>
+        <v>0.037</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3371,7 +3371,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0.0776</v>
+        <v>0.037</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3395,37 +3395,37 @@
         <v>0.0234</v>
       </c>
       <c r="M10" s="14" t="n">
-        <v>0</v>
+        <v>0.0074</v>
       </c>
       <c r="N10" s="14" t="n">
-        <v>0</v>
+        <v>0.0222</v>
       </c>
       <c r="O10" s="14" t="n">
-        <v>0</v>
+        <v>0.0074</v>
       </c>
       <c r="P10" s="14" t="n">
-        <v>0</v>
+        <v>0.0074</v>
       </c>
       <c r="Q10" s="14" t="n">
-        <v>0</v>
+        <v>0.0074</v>
       </c>
       <c r="R10" s="14" t="n">
-        <v>0</v>
+        <v>0.0222</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>0</v>
+        <v>0.0074</v>
       </c>
       <c r="T10" s="14" t="n">
-        <v>0</v>
+        <v>0.0074</v>
       </c>
       <c r="U10" s="14" t="n">
-        <v>0</v>
+        <v>0.0074</v>
       </c>
       <c r="V10" s="14" t="n">
-        <v>0</v>
+        <v>0.0222</v>
       </c>
       <c r="W10" s="14" t="n">
-        <v>0</v>
+        <v>0.0888</v>
       </c>
     </row>
   </sheetData>
@@ -3527,7 +3527,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0</v>
+        <v>0.0189</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3598,7 +3598,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0</v>
+        <v>0.0189</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3669,7 +3669,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0</v>
+        <v>0.0189</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3693,37 +3693,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0</v>
+        <v>0.00378333333333333</v>
       </c>
       <c r="N4" s="15" t="n">
-        <v>0</v>
+        <v>0.01135</v>
       </c>
       <c r="O4" s="15" t="n">
-        <v>0</v>
+        <v>0.00378333333333333</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>0</v>
+        <v>0.00378333333333333</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0</v>
+        <v>0.00378333333333333</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0</v>
+        <v>0.01135</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0</v>
+        <v>0.00378333333333333</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0</v>
+        <v>0.00378333333333333</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0</v>
+        <v>0.00378333333333333</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0</v>
+        <v>0.01135</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>0</v>
+        <v>0.0454</v>
       </c>
     </row>
     <row r="5">
@@ -3951,7 +3951,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>0</v>
+        <v>0.0935</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4022,7 +4022,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="16" t="n">
-        <v>0</v>
+        <v>0.0935</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4093,7 +4093,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="16" t="n">
-        <v>0</v>
+        <v>0.0935</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4117,37 +4117,37 @@
         <v>0.05</v>
       </c>
       <c r="M4" s="16" t="n">
-        <v>0</v>
+        <v>0.0187</v>
       </c>
       <c r="N4" s="16" t="n">
-        <v>0</v>
+        <v>0.0561</v>
       </c>
       <c r="O4" s="16" t="n">
-        <v>0</v>
+        <v>0.0187</v>
       </c>
       <c r="P4" s="16" t="n">
-        <v>0</v>
+        <v>0.0187</v>
       </c>
       <c r="Q4" s="16" t="n">
-        <v>0</v>
+        <v>0.0187</v>
       </c>
       <c r="R4" s="16" t="n">
-        <v>0</v>
+        <v>0.0561</v>
       </c>
       <c r="S4" s="16" t="n">
-        <v>0</v>
+        <v>0.0187</v>
       </c>
       <c r="T4" s="16" t="n">
-        <v>0</v>
+        <v>0.0187</v>
       </c>
       <c r="U4" s="16" t="n">
-        <v>0</v>
+        <v>0.0187</v>
       </c>
       <c r="V4" s="16" t="n">
-        <v>0</v>
+        <v>0.0561</v>
       </c>
       <c r="W4" s="16" t="n">
-        <v>0</v>
+        <v>0.2244</v>
       </c>
     </row>
     <row r="5">
@@ -4278,7 +4278,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="16" t="n">
-        <v>0.0776</v>
+        <v>0.051</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4349,7 +4349,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0.0776</v>
+        <v>0.051</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4420,7 +4420,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.0776</v>
+        <v>0.051</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -4444,37 +4444,37 @@
         <v>0</v>
       </c>
       <c r="M9" s="16" t="n">
-        <v>0</v>
+        <v>0.0102</v>
       </c>
       <c r="N9" s="16" t="n">
-        <v>0</v>
+        <v>0.0306</v>
       </c>
       <c r="O9" s="16" t="n">
-        <v>0</v>
+        <v>0.0102</v>
       </c>
       <c r="P9" s="16" t="n">
-        <v>0</v>
+        <v>0.0102</v>
       </c>
       <c r="Q9" s="16" t="n">
-        <v>0</v>
+        <v>0.0102</v>
       </c>
       <c r="R9" s="16" t="n">
-        <v>0</v>
+        <v>0.0306</v>
       </c>
       <c r="S9" s="16" t="n">
-        <v>0</v>
+        <v>0.0102</v>
       </c>
       <c r="T9" s="16" t="n">
-        <v>0</v>
+        <v>0.0102</v>
       </c>
       <c r="U9" s="16" t="n">
-        <v>0</v>
+        <v>0.0102</v>
       </c>
       <c r="V9" s="16" t="n">
-        <v>0</v>
+        <v>0.0306</v>
       </c>
       <c r="W9" s="16" t="n">
-        <v>0</v>
+        <v>0.1224</v>
       </c>
     </row>
   </sheetData>
@@ -5768,7 +5768,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="20" t="n">
-        <v>0</v>
+        <v>0.0714</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5839,7 +5839,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="20" t="n">
-        <v>0</v>
+        <v>0.0714</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5910,7 +5910,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="20" t="n">
-        <v>0</v>
+        <v>0.0714</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5934,37 +5934,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="20" t="n">
-        <v>0</v>
+        <v>0.0142833333333333</v>
       </c>
       <c r="N4" s="20" t="n">
-        <v>0</v>
+        <v>0.04285</v>
       </c>
       <c r="O4" s="20" t="n">
-        <v>0</v>
+        <v>0.0142833333333333</v>
       </c>
       <c r="P4" s="20" t="n">
-        <v>0</v>
+        <v>0.0142833333333333</v>
       </c>
       <c r="Q4" s="20" t="n">
-        <v>0</v>
+        <v>0.0142833333333333</v>
       </c>
       <c r="R4" s="20" t="n">
-        <v>0</v>
+        <v>0.04285</v>
       </c>
       <c r="S4" s="20" t="n">
-        <v>0</v>
+        <v>0.0142833333333333</v>
       </c>
       <c r="T4" s="20" t="n">
-        <v>0</v>
+        <v>0.0142833333333333</v>
       </c>
       <c r="U4" s="20" t="n">
-        <v>0</v>
+        <v>0.0142833333333333</v>
       </c>
       <c r="V4" s="20" t="n">
-        <v>0</v>
+        <v>0.04285</v>
       </c>
       <c r="W4" s="20" t="n">
-        <v>0</v>
+        <v>0.1714</v>
       </c>
     </row>
     <row r="5">
@@ -6099,7 +6099,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="20" t="n">
-        <v>0.0776</v>
+        <v>0.0189</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -6170,7 +6170,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="20" t="n">
-        <v>0.0776</v>
+        <v>0.0189</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -6241,7 +6241,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="20" t="n">
-        <v>0.0776</v>
+        <v>0.0189</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -6265,37 +6265,37 @@
         <v>0.0192</v>
       </c>
       <c r="M9" s="20" t="n">
-        <v>0</v>
+        <v>0.00378333333333333</v>
       </c>
       <c r="N9" s="20" t="n">
-        <v>0</v>
+        <v>0.01135</v>
       </c>
       <c r="O9" s="20" t="n">
-        <v>0</v>
+        <v>0.00378333333333333</v>
       </c>
       <c r="P9" s="20" t="n">
-        <v>0</v>
+        <v>0.00378333333333333</v>
       </c>
       <c r="Q9" s="20" t="n">
-        <v>0</v>
+        <v>0.00378333333333333</v>
       </c>
       <c r="R9" s="20" t="n">
-        <v>0</v>
+        <v>0.01135</v>
       </c>
       <c r="S9" s="20" t="n">
-        <v>0</v>
+        <v>0.00378333333333333</v>
       </c>
       <c r="T9" s="20" t="n">
-        <v>0</v>
+        <v>0.00378333333333333</v>
       </c>
       <c r="U9" s="20" t="n">
-        <v>0</v>
+        <v>0.00378333333333333</v>
       </c>
       <c r="V9" s="20" t="n">
-        <v>0</v>
+        <v>0.01135</v>
       </c>
       <c r="W9" s="20" t="n">
-        <v>0</v>
+        <v>0.0454</v>
       </c>
     </row>
   </sheetData>
@@ -6694,9 +6694,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="22" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="22"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -6747,9 +6745,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="22" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="22"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -6995,9 +6991,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="23" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="23"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -7066,9 +7060,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="23" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="23"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -7138,7 +7130,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="23" t="n">
-        <v>0.0776</v>
+        <v>1.1111</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -7209,7 +7201,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="23" t="n">
-        <v>0.0776</v>
+        <v>1.1111</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -7280,7 +7272,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="23" t="n">
-        <v>0.0776</v>
+        <v>1.1111</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -7304,37 +7296,37 @@
         <v>0</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.222216666666667</v>
       </c>
       <c r="N6" s="23" t="n">
-        <v>0.25</v>
+        <v>0.66665</v>
       </c>
       <c r="O6" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.222216666666667</v>
       </c>
       <c r="P6" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.222216666666667</v>
       </c>
       <c r="Q6" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.222216666666667</v>
       </c>
       <c r="R6" s="23" t="n">
-        <v>0.25</v>
+        <v>0.66665</v>
       </c>
       <c r="S6" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.222216666666667</v>
       </c>
       <c r="T6" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.222216666666667</v>
       </c>
       <c r="U6" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.222216666666667</v>
       </c>
       <c r="V6" s="23" t="n">
-        <v>0.25</v>
+        <v>0.66665</v>
       </c>
       <c r="W6" s="23" t="n">
-        <v>1</v>
+        <v>2.6666</v>
       </c>
     </row>
   </sheetData>
@@ -7759,7 +7751,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="24" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -7830,7 +7822,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="24" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -7901,7 +7893,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="24" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -8270,7 +8262,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="25" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -8341,7 +8333,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="25" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -8412,7 +8404,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="25" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -8567,9 +8559,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="26"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -8626,9 +8616,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="26"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -9065,7 +9053,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="28" t="n">
-        <v>0</v>
+        <v>0.0685</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -9136,7 +9124,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="28" t="n">
-        <v>0</v>
+        <v>0.0685</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -9207,7 +9195,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="28" t="n">
-        <v>0</v>
+        <v>0.0685</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -9231,37 +9219,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="28" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="N4" s="28" t="n">
-        <v>0</v>
+        <v>0.0411</v>
       </c>
       <c r="O4" s="28" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="P4" s="28" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="Q4" s="28" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="R4" s="28" t="n">
-        <v>0</v>
+        <v>0.0411</v>
       </c>
       <c r="S4" s="28" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="T4" s="28" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="U4" s="28" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="V4" s="28" t="n">
-        <v>0</v>
+        <v>0.0411</v>
       </c>
       <c r="W4" s="28" t="n">
-        <v>0</v>
+        <v>0.1644</v>
       </c>
     </row>
     <row r="5">
@@ -9388,7 +9376,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="28" t="n">
-        <v>0.0776</v>
+        <v>0.0605</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -9459,7 +9447,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="28" t="n">
-        <v>0.0776</v>
+        <v>0.0605</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -9530,7 +9518,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="28" t="n">
-        <v>0.0776</v>
+        <v>0.0605</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -9554,37 +9542,37 @@
         <v>0.02</v>
       </c>
       <c r="M9" s="28" t="n">
-        <v>0</v>
+        <v>0.0121</v>
       </c>
       <c r="N9" s="28" t="n">
-        <v>0</v>
+        <v>0.0363</v>
       </c>
       <c r="O9" s="28" t="n">
-        <v>0</v>
+        <v>0.0121</v>
       </c>
       <c r="P9" s="28" t="n">
-        <v>0</v>
+        <v>0.0121</v>
       </c>
       <c r="Q9" s="28" t="n">
-        <v>0</v>
+        <v>0.0121</v>
       </c>
       <c r="R9" s="28" t="n">
-        <v>0</v>
+        <v>0.0363</v>
       </c>
       <c r="S9" s="28" t="n">
-        <v>0</v>
+        <v>0.0121</v>
       </c>
       <c r="T9" s="28" t="n">
-        <v>0</v>
+        <v>0.0121</v>
       </c>
       <c r="U9" s="28" t="n">
-        <v>0</v>
+        <v>0.0121</v>
       </c>
       <c r="V9" s="28" t="n">
-        <v>0</v>
+        <v>0.0363</v>
       </c>
       <c r="W9" s="28" t="n">
-        <v>0</v>
+        <v>0.1452</v>
       </c>
     </row>
   </sheetData>
@@ -9686,7 +9674,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="29" t="n">
-        <v>0</v>
+        <v>0.0246</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -9757,7 +9745,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="29" t="n">
-        <v>0</v>
+        <v>0.0246</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -9828,7 +9816,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="29" t="n">
-        <v>0</v>
+        <v>0.0246</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -9852,37 +9840,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="29" t="n">
-        <v>0</v>
+        <v>0.00491666666666667</v>
       </c>
       <c r="N4" s="29" t="n">
-        <v>0</v>
+        <v>0.01475</v>
       </c>
       <c r="O4" s="29" t="n">
-        <v>0</v>
+        <v>0.00491666666666667</v>
       </c>
       <c r="P4" s="29" t="n">
-        <v>0</v>
+        <v>0.00491666666666667</v>
       </c>
       <c r="Q4" s="29" t="n">
-        <v>0</v>
+        <v>0.00491666666666667</v>
       </c>
       <c r="R4" s="29" t="n">
-        <v>0</v>
+        <v>0.01475</v>
       </c>
       <c r="S4" s="29" t="n">
-        <v>0</v>
+        <v>0.00491666666666667</v>
       </c>
       <c r="T4" s="29" t="n">
-        <v>0</v>
+        <v>0.00491666666666667</v>
       </c>
       <c r="U4" s="29" t="n">
-        <v>0</v>
+        <v>0.00491666666666667</v>
       </c>
       <c r="V4" s="29" t="n">
-        <v>0</v>
+        <v>0.01475</v>
       </c>
       <c r="W4" s="29" t="n">
-        <v>0</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="5">
@@ -10080,7 +10068,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="29" t="n">
-        <v>0.0776</v>
+        <v>0.0667</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -10151,7 +10139,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="29" t="n">
-        <v>0.0776</v>
+        <v>0.0667</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -10222,7 +10210,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="29" t="n">
-        <v>0.0776</v>
+        <v>0.0667</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -10246,37 +10234,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="29" t="n">
-        <v>0</v>
+        <v>0.0133416666666667</v>
       </c>
       <c r="N10" s="29" t="n">
-        <v>0</v>
+        <v>0.040025</v>
       </c>
       <c r="O10" s="29" t="n">
-        <v>0</v>
+        <v>0.0133416666666667</v>
       </c>
       <c r="P10" s="29" t="n">
-        <v>0</v>
+        <v>0.0133416666666667</v>
       </c>
       <c r="Q10" s="29" t="n">
-        <v>0</v>
+        <v>0.0133416666666667</v>
       </c>
       <c r="R10" s="29" t="n">
-        <v>0</v>
+        <v>0.040025</v>
       </c>
       <c r="S10" s="29" t="n">
-        <v>0</v>
+        <v>0.0133416666666667</v>
       </c>
       <c r="T10" s="29" t="n">
-        <v>0</v>
+        <v>0.0133416666666667</v>
       </c>
       <c r="U10" s="29" t="n">
-        <v>0</v>
+        <v>0.0133416666666667</v>
       </c>
       <c r="V10" s="29" t="n">
-        <v>0</v>
+        <v>0.040025</v>
       </c>
       <c r="W10" s="29" t="n">
-        <v>0</v>
+        <v>0.1601</v>
       </c>
     </row>
   </sheetData>
@@ -10377,9 +10365,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="3"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -10448,9 +10434,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="3"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -10715,7 +10699,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="30" t="n">
-        <v>0</v>
+        <v>0.0376</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10786,7 +10770,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="30" t="n">
-        <v>0</v>
+        <v>0.0376</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10857,7 +10841,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="30" t="n">
-        <v>0</v>
+        <v>0.0376</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10881,37 +10865,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="30" t="n">
-        <v>0</v>
+        <v>0.00751666666666667</v>
       </c>
       <c r="N4" s="30" t="n">
-        <v>0</v>
+        <v>0.02255</v>
       </c>
       <c r="O4" s="30" t="n">
-        <v>0</v>
+        <v>0.00751666666666667</v>
       </c>
       <c r="P4" s="30" t="n">
-        <v>0</v>
+        <v>0.00751666666666667</v>
       </c>
       <c r="Q4" s="30" t="n">
-        <v>0</v>
+        <v>0.00751666666666667</v>
       </c>
       <c r="R4" s="30" t="n">
-        <v>0</v>
+        <v>0.02255</v>
       </c>
       <c r="S4" s="30" t="n">
-        <v>0</v>
+        <v>0.00751666666666667</v>
       </c>
       <c r="T4" s="30" t="n">
-        <v>0</v>
+        <v>0.00751666666666667</v>
       </c>
       <c r="U4" s="30" t="n">
-        <v>0</v>
+        <v>0.00751666666666667</v>
       </c>
       <c r="V4" s="30" t="n">
-        <v>0</v>
+        <v>0.02255</v>
       </c>
       <c r="W4" s="30" t="n">
-        <v>0</v>
+        <v>0.0902</v>
       </c>
     </row>
     <row r="5">
@@ -11117,7 +11101,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="30" t="n">
-        <v>0.0776</v>
+        <v>0.0311</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -11188,7 +11172,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="30" t="n">
-        <v>0.0776</v>
+        <v>0.0311</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -11259,7 +11243,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="30" t="n">
-        <v>0.0776</v>
+        <v>0.0311</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -11283,37 +11267,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="30" t="n">
-        <v>0</v>
+        <v>0.00621666666666667</v>
       </c>
       <c r="N10" s="30" t="n">
-        <v>0</v>
+        <v>0.01865</v>
       </c>
       <c r="O10" s="30" t="n">
-        <v>0</v>
+        <v>0.00621666666666667</v>
       </c>
       <c r="P10" s="30" t="n">
-        <v>0</v>
+        <v>0.00621666666666667</v>
       </c>
       <c r="Q10" s="30" t="n">
-        <v>0</v>
+        <v>0.00621666666666667</v>
       </c>
       <c r="R10" s="30" t="n">
-        <v>0</v>
+        <v>0.01865</v>
       </c>
       <c r="S10" s="30" t="n">
-        <v>0</v>
+        <v>0.00621666666666667</v>
       </c>
       <c r="T10" s="30" t="n">
-        <v>0</v>
+        <v>0.00621666666666667</v>
       </c>
       <c r="U10" s="30" t="n">
-        <v>0</v>
+        <v>0.00621666666666667</v>
       </c>
       <c r="V10" s="30" t="n">
-        <v>0</v>
+        <v>0.01865</v>
       </c>
       <c r="W10" s="30" t="n">
-        <v>0</v>
+        <v>0.0746</v>
       </c>
     </row>
   </sheetData>
@@ -11627,9 +11611,7 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="31" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="31"/>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -11670,9 +11652,7 @@
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="31" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E6" s="31"/>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -11799,7 +11779,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="32" t="n">
-        <v>0</v>
+        <v>0.0355</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11870,7 +11850,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="32" t="n">
-        <v>0</v>
+        <v>0.0355</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11941,7 +11921,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="32" t="n">
-        <v>0</v>
+        <v>0.0355</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11965,37 +11945,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="32" t="n">
-        <v>0</v>
+        <v>0.0071</v>
       </c>
       <c r="N4" s="32" t="n">
-        <v>0</v>
+        <v>0.0213</v>
       </c>
       <c r="O4" s="32" t="n">
-        <v>0</v>
+        <v>0.0071</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>0</v>
+        <v>0.0071</v>
       </c>
       <c r="Q4" s="32" t="n">
-        <v>0</v>
+        <v>0.0071</v>
       </c>
       <c r="R4" s="32" t="n">
-        <v>0</v>
+        <v>0.0213</v>
       </c>
       <c r="S4" s="32" t="n">
-        <v>0</v>
+        <v>0.0071</v>
       </c>
       <c r="T4" s="32" t="n">
-        <v>0</v>
+        <v>0.0071</v>
       </c>
       <c r="U4" s="32" t="n">
-        <v>0</v>
+        <v>0.0071</v>
       </c>
       <c r="V4" s="32" t="n">
-        <v>0</v>
+        <v>0.0213</v>
       </c>
       <c r="W4" s="32" t="n">
-        <v>0</v>
+        <v>0.0852</v>
       </c>
     </row>
     <row r="5">
@@ -12128,7 +12108,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="32" t="n">
-        <v>0.0776</v>
+        <v>0.0229</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -12199,7 +12179,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="32" t="n">
-        <v>0.0776</v>
+        <v>0.0229</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -12270,7 +12250,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="32" t="n">
-        <v>0.0776</v>
+        <v>0.0229</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -12294,37 +12274,37 @@
         <v>0.0045</v>
       </c>
       <c r="M9" s="32" t="n">
-        <v>0</v>
+        <v>0.00458333333333333</v>
       </c>
       <c r="N9" s="32" t="n">
-        <v>0</v>
+        <v>0.01375</v>
       </c>
       <c r="O9" s="32" t="n">
-        <v>0</v>
+        <v>0.00458333333333333</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>0</v>
+        <v>0.00458333333333333</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>0</v>
+        <v>0.00458333333333333</v>
       </c>
       <c r="R9" s="32" t="n">
-        <v>0</v>
+        <v>0.01375</v>
       </c>
       <c r="S9" s="32" t="n">
-        <v>0</v>
+        <v>0.00458333333333333</v>
       </c>
       <c r="T9" s="32" t="n">
-        <v>0</v>
+        <v>0.00458333333333333</v>
       </c>
       <c r="U9" s="32" t="n">
-        <v>0</v>
+        <v>0.00458333333333333</v>
       </c>
       <c r="V9" s="32" t="n">
-        <v>0</v>
+        <v>0.01375</v>
       </c>
       <c r="W9" s="32" t="n">
-        <v>0</v>
+        <v>0.055</v>
       </c>
     </row>
   </sheetData>
@@ -12806,7 +12786,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -13189,7 +13169,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="36" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -13553,9 +13533,7 @@
       <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="38" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="38"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -13604,9 +13582,7 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="38" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="38"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -13741,7 +13717,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="39" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13794,7 +13770,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="39" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13847,7 +13823,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="39" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -14214,7 +14190,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.0776</v>
+        <v>0.75</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -14285,7 +14261,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.0776</v>
+        <v>0.75</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -14356,7 +14332,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.0776</v>
+        <v>0.75</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -14380,37 +14356,37 @@
         <v>0.3333</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.15</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.15</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.15</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.15</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.15</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.15</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.15</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
@@ -14922,7 +14898,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0776</v>
+        <v>0.0543</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -14993,7 +14969,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0776</v>
+        <v>0.0543</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -15064,7 +15040,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.0776</v>
+        <v>0.0543</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -15088,37 +15064,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>0</v>
+        <v>0.0108583333333333</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0.032575</v>
       </c>
       <c r="O10" s="5" t="n">
-        <v>0</v>
+        <v>0.0108583333333333</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0</v>
+        <v>0.0108583333333333</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>0</v>
+        <v>0.0108583333333333</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>0</v>
+        <v>0.032575</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0</v>
+        <v>0.0108583333333333</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>0</v>
+        <v>0.0108583333333333</v>
       </c>
       <c r="U10" s="5" t="n">
-        <v>0</v>
+        <v>0.0108583333333333</v>
       </c>
       <c r="V10" s="5" t="n">
-        <v>0</v>
+        <v>0.032575</v>
       </c>
       <c r="W10" s="5" t="n">
-        <v>0</v>
+        <v>0.1303</v>
       </c>
     </row>
   </sheetData>
@@ -15220,7 +15196,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0</v>
+        <v>0.0129</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -15291,7 +15267,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0</v>
+        <v>0.0129</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -15362,7 +15338,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0</v>
+        <v>0.0129</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -15386,37 +15362,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0</v>
+        <v>0.00258333333333333</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0</v>
+        <v>0.00775</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0</v>
+        <v>0.00258333333333333</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0</v>
+        <v>0.00258333333333333</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0</v>
+        <v>0.00258333333333333</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0</v>
+        <v>0.00775</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0</v>
+        <v>0.00258333333333333</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0</v>
+        <v>0.00258333333333333</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0</v>
+        <v>0.00258333333333333</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0</v>
+        <v>0.00775</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="5">
@@ -15622,7 +15598,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0776</v>
+        <v>0.0373</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -15693,7 +15669,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0776</v>
+        <v>0.0373</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -15764,7 +15740,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.0776</v>
+        <v>0.0373</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -15788,37 +15764,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>0</v>
+        <v>0.00745833333333333</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0</v>
+        <v>0.022375</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0</v>
+        <v>0.00745833333333333</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0</v>
+        <v>0.00745833333333333</v>
       </c>
       <c r="Q10" s="6" t="n">
-        <v>0</v>
+        <v>0.00745833333333333</v>
       </c>
       <c r="R10" s="6" t="n">
-        <v>0</v>
+        <v>0.022375</v>
       </c>
       <c r="S10" s="6" t="n">
-        <v>0</v>
+        <v>0.00745833333333333</v>
       </c>
       <c r="T10" s="6" t="n">
-        <v>0</v>
+        <v>0.00745833333333333</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0</v>
+        <v>0.00745833333333333</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0</v>
+        <v>0.022375</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0</v>
+        <v>0.0895</v>
       </c>
     </row>
   </sheetData>
@@ -15920,7 +15896,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0</v>
+        <v>0.1397</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -15991,7 +15967,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0</v>
+        <v>0.1397</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -16062,7 +16038,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0</v>
+        <v>0.1397</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -16086,37 +16062,37 @@
         <v>0.0882</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0</v>
+        <v>0.0279416666666667</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0</v>
+        <v>0.083825</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0</v>
+        <v>0.0279416666666667</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0</v>
+        <v>0.0279416666666667</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0</v>
+        <v>0.0279416666666667</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0</v>
+        <v>0.083825</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0</v>
+        <v>0.0279416666666667</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0</v>
+        <v>0.0279416666666667</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0</v>
+        <v>0.0279416666666667</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0</v>
+        <v>0.083825</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0</v>
+        <v>0.3353</v>
       </c>
     </row>
     <row r="5">
@@ -16255,7 +16231,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -16326,7 +16302,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -16397,7 +16373,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -17064,7 +17040,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.0776</v>
+        <v>0.5556</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -17135,7 +17111,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>0.0776</v>
+        <v>0.5556</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -17206,7 +17182,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>0.0776</v>
+        <v>0.5556</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -17230,37 +17206,37 @@
         <v>0</v>
       </c>
       <c r="M7" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="N7" s="9" t="n">
-        <v>0.25</v>
+        <v>0.33335</v>
       </c>
       <c r="O7" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="P7" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="Q7" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="R7" s="9" t="n">
-        <v>0.25</v>
+        <v>0.33335</v>
       </c>
       <c r="S7" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="T7" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="U7" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="V7" s="9" t="n">
-        <v>0.25</v>
+        <v>0.33335</v>
       </c>
       <c r="W7" s="9" t="n">
-        <v>1</v>
+        <v>1.3334</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_IPS Gearing Division.xlsx
+++ b/outputs/SORs/SOR Testing_IPS Gearing Division.xlsx
@@ -40,17 +40,20 @@
     <sheet name="Zlaté Moravce Slovakia" sheetId="32" state="visible" r:id="rId32"/>
     <sheet name="Bennetts Green Australia" sheetId="33" state="visible" r:id="rId33"/>
     <sheet name="Etobicoke Canada" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="Kontich Belgium" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="Milwaukee Pmc Renew Wisconsin" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="Ciserano Italy" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="Perth Australia" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="Braeside  Australia" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="Hyderabad India" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="Kontich Belgium" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="Milwaukee Pmc Renew Wisconsin" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="Shanghai China" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="Ciserano Italy" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="Gregory Hills Australia" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="Perth Australia" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="Braeside  Australia" sheetId="42" state="visible" r:id="rId42"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -247,13 +250,22 @@
     <t xml:space="preserve">Etobicoke Canada</t>
   </si>
   <si>
+    <t xml:space="preserve">Hyderabad India</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kontich Belgium</t>
   </si>
   <si>
     <t xml:space="preserve">Milwaukee Pmc Renew Wisconsin</t>
   </si>
   <si>
+    <t xml:space="preserve">Shanghai China</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ciserano Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gregory Hills Australia</t>
   </si>
   <si>
     <t xml:space="preserve">Perth Australia</t>
@@ -266,7 +278,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="39">
+  <numFmts count="42">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -306,6 +318,9 @@
     <numFmt numFmtId="201" formatCode="0.0%"/>
     <numFmt numFmtId="202" formatCode="0.0%"/>
     <numFmt numFmtId="203" formatCode="0.0%"/>
+    <numFmt numFmtId="204" formatCode="0.0%"/>
+    <numFmt numFmtId="205" formatCode="0.0%"/>
+    <numFmt numFmtId="206" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -341,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -382,6 +397,9 @@
     <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="203" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,7 +778,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.1607</v>
+        <v>0.2351</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -831,7 +849,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.1607</v>
+        <v>0.2351</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -902,7 +920,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.1607</v>
+        <v>0.2351</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -926,37 +944,37 @@
         <v>0.0755</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0.0321416666666667</v>
+        <v>0.0769</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0.096425</v>
+        <v>0.1676</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.0321416666666667</v>
+        <v>0.0391833333333333</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.0321416666666667</v>
+        <v>0.0391833333333333</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.0321416666666667</v>
+        <v>0.0391833333333333</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.096425</v>
+        <v>0.11755</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.0321416666666667</v>
+        <v>0.0391833333333333</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.0321416666666667</v>
+        <v>0.0391833333333333</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.0321416666666667</v>
+        <v>0.0391833333333333</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.096425</v>
+        <v>0.11755</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0.3857</v>
+        <v>0.4702</v>
       </c>
     </row>
     <row r="5">
@@ -973,7 +991,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1034,7 +1052,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1105,7 +1123,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1125,37 +1143,37 @@
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="8">
@@ -1172,7 +1190,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.4023</v>
+        <v>0.5056</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1243,7 +1261,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.4023</v>
+        <v>0.5056</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1314,61 +1332,61 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.4023</v>
+        <v>0.5056</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0.0717</v>
+        <v>0.0714</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>0.0683</v>
+        <v>0.068</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>0.0759</v>
+        <v>0.0757</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>0.216</v>
+        <v>0.2153</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>0.099</v>
+        <v>0.0978</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>0.0848</v>
+        <v>0.0836</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>0.0804583333333333</v>
+        <v>0.1037</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0.241375</v>
+        <v>0.2853</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0.0804583333333333</v>
+        <v>0.0842666666666667</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0.0804583333333333</v>
+        <v>0.0842666666666667</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>0.0804583333333333</v>
+        <v>0.0842666666666667</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0.241375</v>
+        <v>0.2528</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0.0804583333333333</v>
+        <v>0.0842666666666667</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0.0804583333333333</v>
+        <v>0.0842666666666667</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.0804583333333333</v>
+        <v>0.0842666666666667</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.241375</v>
+        <v>0.2528</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0.9655</v>
+        <v>1.0112</v>
       </c>
     </row>
   </sheetData>
@@ -1767,9 +1785,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="11"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1838,9 +1854,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1894,138 +1908,6 @@
       </c>
       <c r="W3" s="11" t="n">
         <v>0.11637</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="11" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2833,7 +2715,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0.0811</v>
+        <v>0.1067</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2904,7 +2786,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0.0811</v>
+        <v>0.1067</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2975,13 +2857,13 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0.0811</v>
+        <v>0.1067</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="14" t="n">
-        <v>0.025</v>
+        <v>0.0244</v>
       </c>
       <c r="H4" s="14" t="n">
         <v>0</v>
@@ -2990,46 +2872,46 @@
         <v>0</v>
       </c>
       <c r="J4" s="14" t="n">
-        <v>0.0263</v>
+        <v>0.0256</v>
       </c>
       <c r="K4" s="14" t="n">
-        <v>0.0278</v>
+        <v>0.027</v>
       </c>
       <c r="L4" s="14" t="n">
-        <v>0.0286</v>
+        <v>0.0556</v>
       </c>
       <c r="M4" s="14" t="n">
-        <v>0.0162166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="14" t="n">
-        <v>0.04865</v>
+        <v>0.0833</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0.0162166666666667</v>
+        <v>0.0177833333333333</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0.0162166666666667</v>
+        <v>0.0177833333333333</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0.0162166666666667</v>
+        <v>0.0177833333333333</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0.04865</v>
+        <v>0.05335</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0.0162166666666667</v>
+        <v>0.0177833333333333</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0.0162166666666667</v>
+        <v>0.0177833333333333</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0.0162166666666667</v>
+        <v>0.0177833333333333</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0.04865</v>
+        <v>0.05335</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0.1946</v>
+        <v>0.2134</v>
       </c>
     </row>
     <row r="5">
@@ -3229,7 +3111,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.037</v>
+        <v>0.0376</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3300,7 +3182,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.037</v>
+        <v>0.0376</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3371,7 +3253,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0.037</v>
+        <v>0.0376</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3380,52 +3262,52 @@
         <v>0</v>
       </c>
       <c r="H10" s="14" t="n">
-        <v>0.0075</v>
+        <v>0.0076</v>
       </c>
       <c r="I10" s="14" t="n">
-        <v>0.0077</v>
+        <v>0.0078</v>
       </c>
       <c r="J10" s="14" t="n">
-        <v>0.0144</v>
+        <v>0.0145</v>
       </c>
       <c r="K10" s="14" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="14" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="M10" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14" t="n">
         <v>0.0234</v>
       </c>
-      <c r="M10" s="14" t="n">
-        <v>0.0074</v>
-      </c>
-      <c r="N10" s="14" t="n">
-        <v>0.0222</v>
-      </c>
       <c r="O10" s="14" t="n">
-        <v>0.0074</v>
+        <v>0.00626666666666667</v>
       </c>
       <c r="P10" s="14" t="n">
-        <v>0.0074</v>
+        <v>0.00626666666666667</v>
       </c>
       <c r="Q10" s="14" t="n">
-        <v>0.0074</v>
+        <v>0.00626666666666667</v>
       </c>
       <c r="R10" s="14" t="n">
-        <v>0.0222</v>
+        <v>0.0188</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>0.0074</v>
+        <v>0.00626666666666667</v>
       </c>
       <c r="T10" s="14" t="n">
-        <v>0.0074</v>
+        <v>0.00626666666666667</v>
       </c>
       <c r="U10" s="14" t="n">
-        <v>0.0074</v>
+        <v>0.00626666666666667</v>
       </c>
       <c r="V10" s="14" t="n">
-        <v>0.0222</v>
+        <v>0.0188</v>
       </c>
       <c r="W10" s="14" t="n">
-        <v>0.0888</v>
+        <v>0.0752</v>
       </c>
     </row>
   </sheetData>
@@ -3527,7 +3409,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.0189</v>
+        <v>0.0379</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3598,7 +3480,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.0189</v>
+        <v>0.0379</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3669,7 +3551,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.0189</v>
+        <v>0.0379</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3693,37 +3575,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.00378333333333333</v>
+        <v>0.0189</v>
       </c>
       <c r="N4" s="15" t="n">
-        <v>0.01135</v>
+        <v>0.0189</v>
       </c>
       <c r="O4" s="15" t="n">
-        <v>0.00378333333333333</v>
+        <v>0.00631666666666667</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>0.00378333333333333</v>
+        <v>0.00631666666666667</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0.00378333333333333</v>
+        <v>0.00631666666666667</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0.01135</v>
+        <v>0.01895</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0.00378333333333333</v>
+        <v>0.00631666666666667</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0.00378333333333333</v>
+        <v>0.00631666666666667</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0.00378333333333333</v>
+        <v>0.00631666666666667</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0.01135</v>
+        <v>0.01895</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>0.0454</v>
+        <v>0.0758</v>
       </c>
     </row>
     <row r="5">
@@ -3739,7 +3621,9 @@
       <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -3796,7 +3680,9 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -3850,6 +3736,124 @@
       </c>
       <c r="W6" s="15" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="15" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3951,7 +3955,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>0.0935</v>
+        <v>0.1449</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4022,7 +4026,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="16" t="n">
-        <v>0.0935</v>
+        <v>0.1449</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4093,7 +4097,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="16" t="n">
-        <v>0.0935</v>
+        <v>0.1449</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4117,37 +4121,37 @@
         <v>0.05</v>
       </c>
       <c r="M4" s="16" t="n">
-        <v>0.0187</v>
+        <v>0.0588</v>
       </c>
       <c r="N4" s="16" t="n">
-        <v>0.0561</v>
+        <v>0.1036</v>
       </c>
       <c r="O4" s="16" t="n">
-        <v>0.0187</v>
+        <v>0.02415</v>
       </c>
       <c r="P4" s="16" t="n">
-        <v>0.0187</v>
+        <v>0.02415</v>
       </c>
       <c r="Q4" s="16" t="n">
-        <v>0.0187</v>
+        <v>0.02415</v>
       </c>
       <c r="R4" s="16" t="n">
-        <v>0.0561</v>
+        <v>0.07245</v>
       </c>
       <c r="S4" s="16" t="n">
-        <v>0.0187</v>
+        <v>0.02415</v>
       </c>
       <c r="T4" s="16" t="n">
-        <v>0.0187</v>
+        <v>0.02415</v>
       </c>
       <c r="U4" s="16" t="n">
-        <v>0.0187</v>
+        <v>0.02415</v>
       </c>
       <c r="V4" s="16" t="n">
-        <v>0.0561</v>
+        <v>0.07245</v>
       </c>
       <c r="W4" s="16" t="n">
-        <v>0.2244</v>
+        <v>0.2898</v>
       </c>
     </row>
     <row r="5">
@@ -4278,7 +4282,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="16" t="n">
-        <v>0.051</v>
+        <v>0.0498</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4349,7 +4353,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0.051</v>
+        <v>0.0498</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4420,7 +4424,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.051</v>
+        <v>0.0498</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -4438,43 +4442,43 @@
         <v>0</v>
       </c>
       <c r="K9" s="16" t="n">
-        <v>0.0526</v>
+        <v>0.0513</v>
       </c>
       <c r="L9" s="16" t="n">
         <v>0</v>
       </c>
       <c r="M9" s="16" t="n">
-        <v>0.0102</v>
+        <v>0</v>
       </c>
       <c r="N9" s="16" t="n">
-        <v>0.0306</v>
+        <v>0.0509</v>
       </c>
       <c r="O9" s="16" t="n">
-        <v>0.0102</v>
+        <v>0.0083</v>
       </c>
       <c r="P9" s="16" t="n">
-        <v>0.0102</v>
+        <v>0.0083</v>
       </c>
       <c r="Q9" s="16" t="n">
-        <v>0.0102</v>
+        <v>0.0083</v>
       </c>
       <c r="R9" s="16" t="n">
-        <v>0.0306</v>
+        <v>0.0249</v>
       </c>
       <c r="S9" s="16" t="n">
-        <v>0.0102</v>
+        <v>0.0083</v>
       </c>
       <c r="T9" s="16" t="n">
-        <v>0.0102</v>
+        <v>0.0083</v>
       </c>
       <c r="U9" s="16" t="n">
-        <v>0.0102</v>
+        <v>0.0083</v>
       </c>
       <c r="V9" s="16" t="n">
-        <v>0.0306</v>
+        <v>0.0249</v>
       </c>
       <c r="W9" s="16" t="n">
-        <v>0.1224</v>
+        <v>0.0996</v>
       </c>
     </row>
   </sheetData>
@@ -5768,7 +5772,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="20" t="n">
-        <v>0.0714</v>
+        <v>0.219</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5839,7 +5843,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="20" t="n">
-        <v>0.0714</v>
+        <v>0.219</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5910,7 +5914,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="20" t="n">
-        <v>0.0714</v>
+        <v>0.219</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5934,37 +5938,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="20" t="n">
-        <v>0.0142833333333333</v>
+        <v>0.1667</v>
       </c>
       <c r="N4" s="20" t="n">
-        <v>0.04285</v>
+        <v>0.1504</v>
       </c>
       <c r="O4" s="20" t="n">
-        <v>0.0142833333333333</v>
+        <v>0.0365</v>
       </c>
       <c r="P4" s="20" t="n">
-        <v>0.0142833333333333</v>
+        <v>0.0365</v>
       </c>
       <c r="Q4" s="20" t="n">
-        <v>0.0142833333333333</v>
+        <v>0.0365</v>
       </c>
       <c r="R4" s="20" t="n">
-        <v>0.04285</v>
+        <v>0.1095</v>
       </c>
       <c r="S4" s="20" t="n">
-        <v>0.0142833333333333</v>
+        <v>0.0365</v>
       </c>
       <c r="T4" s="20" t="n">
-        <v>0.0142833333333333</v>
+        <v>0.0365</v>
       </c>
       <c r="U4" s="20" t="n">
-        <v>0.0142833333333333</v>
+        <v>0.0365</v>
       </c>
       <c r="V4" s="20" t="n">
-        <v>0.04285</v>
+        <v>0.1095</v>
       </c>
       <c r="W4" s="20" t="n">
-        <v>0.1714</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="5">
@@ -6099,7 +6103,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="20" t="n">
-        <v>0.0189</v>
+        <v>0.019</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -6170,7 +6174,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="20" t="n">
-        <v>0.0189</v>
+        <v>0.019</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -6241,7 +6245,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="20" t="n">
-        <v>0.0189</v>
+        <v>0.019</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -6265,37 +6269,37 @@
         <v>0.0192</v>
       </c>
       <c r="M9" s="20" t="n">
-        <v>0.00378333333333333</v>
+        <v>0</v>
       </c>
       <c r="N9" s="20" t="n">
-        <v>0.01135</v>
+        <v>0.0191</v>
       </c>
       <c r="O9" s="20" t="n">
-        <v>0.00378333333333333</v>
+        <v>0.00316666666666667</v>
       </c>
       <c r="P9" s="20" t="n">
-        <v>0.00378333333333333</v>
+        <v>0.00316666666666667</v>
       </c>
       <c r="Q9" s="20" t="n">
-        <v>0.00378333333333333</v>
+        <v>0.00316666666666667</v>
       </c>
       <c r="R9" s="20" t="n">
-        <v>0.01135</v>
+        <v>0.0095</v>
       </c>
       <c r="S9" s="20" t="n">
-        <v>0.00378333333333333</v>
+        <v>0.00316666666666667</v>
       </c>
       <c r="T9" s="20" t="n">
-        <v>0.00378333333333333</v>
+        <v>0.00316666666666667</v>
       </c>
       <c r="U9" s="20" t="n">
-        <v>0.00378333333333333</v>
+        <v>0.00316666666666667</v>
       </c>
       <c r="V9" s="20" t="n">
-        <v>0.01135</v>
+        <v>0.0095</v>
       </c>
       <c r="W9" s="20" t="n">
-        <v>0.0454</v>
+        <v>0.038</v>
       </c>
     </row>
   </sheetData>
@@ -7130,7 +7134,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="23" t="n">
-        <v>1.1111</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -7201,7 +7205,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="23" t="n">
-        <v>1.1111</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -7272,7 +7276,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="23" t="n">
-        <v>1.1111</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -7296,37 +7300,37 @@
         <v>0</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>0.222216666666667</v>
+        <v>0</v>
       </c>
       <c r="N6" s="23" t="n">
-        <v>0.66665</v>
+        <v>0</v>
       </c>
       <c r="O6" s="23" t="n">
-        <v>0.222216666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="P6" s="23" t="n">
-        <v>0.222216666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Q6" s="23" t="n">
-        <v>0.222216666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="R6" s="23" t="n">
-        <v>0.66665</v>
+        <v>0.5</v>
       </c>
       <c r="S6" s="23" t="n">
-        <v>0.222216666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="T6" s="23" t="n">
-        <v>0.222216666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="U6" s="23" t="n">
-        <v>0.222216666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="V6" s="23" t="n">
-        <v>0.66665</v>
+        <v>0.5</v>
       </c>
       <c r="W6" s="23" t="n">
-        <v>2.6666</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -8920,12 +8924,8 @@
       </c>
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
-      <c r="M4" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="27" t="n">
-        <v>0</v>
-      </c>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
       <c r="O4" s="27" t="n">
         <v>0</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="28" t="n">
-        <v>0.0685</v>
+        <v>0.069</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -9124,7 +9124,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="28" t="n">
-        <v>0.0685</v>
+        <v>0.069</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -9195,7 +9195,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="28" t="n">
-        <v>0.0685</v>
+        <v>0.069</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -9219,37 +9219,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="28" t="n">
-        <v>0.0137</v>
+        <v>0</v>
       </c>
       <c r="N4" s="28" t="n">
-        <v>0.0411</v>
+        <v>0.0714</v>
       </c>
       <c r="O4" s="28" t="n">
-        <v>0.0137</v>
+        <v>0.0115</v>
       </c>
       <c r="P4" s="28" t="n">
-        <v>0.0137</v>
+        <v>0.0115</v>
       </c>
       <c r="Q4" s="28" t="n">
-        <v>0.0137</v>
+        <v>0.0115</v>
       </c>
       <c r="R4" s="28" t="n">
-        <v>0.0411</v>
+        <v>0.0345</v>
       </c>
       <c r="S4" s="28" t="n">
-        <v>0.0137</v>
+        <v>0.0115</v>
       </c>
       <c r="T4" s="28" t="n">
-        <v>0.0137</v>
+        <v>0.0115</v>
       </c>
       <c r="U4" s="28" t="n">
-        <v>0.0137</v>
+        <v>0.0115</v>
       </c>
       <c r="V4" s="28" t="n">
-        <v>0.0411</v>
+        <v>0.0345</v>
       </c>
       <c r="W4" s="28" t="n">
-        <v>0.1644</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="5">
@@ -9376,7 +9376,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="28" t="n">
-        <v>0.0605</v>
+        <v>0.0765</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -9447,7 +9447,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="28" t="n">
-        <v>0.0605</v>
+        <v>0.0765</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -9518,7 +9518,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="28" t="n">
-        <v>0.0605</v>
+        <v>0.0765</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -9527,52 +9527,52 @@
         <v>0.02</v>
       </c>
       <c r="H9" s="28" t="n">
-        <v>0.0213</v>
+        <v>0.0204</v>
       </c>
       <c r="I9" s="28" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="28" t="n">
-        <v>0.0408</v>
+        <v>0.0398</v>
       </c>
       <c r="K9" s="28" t="n">
         <v>0</v>
       </c>
       <c r="L9" s="28" t="n">
-        <v>0.02</v>
+        <v>0.0182</v>
       </c>
       <c r="M9" s="28" t="n">
-        <v>0.0121</v>
+        <v>0.0185</v>
       </c>
       <c r="N9" s="28" t="n">
-        <v>0.0363</v>
+        <v>0.0368</v>
       </c>
       <c r="O9" s="28" t="n">
-        <v>0.0121</v>
+        <v>0.01275</v>
       </c>
       <c r="P9" s="28" t="n">
-        <v>0.0121</v>
+        <v>0.01275</v>
       </c>
       <c r="Q9" s="28" t="n">
-        <v>0.0121</v>
+        <v>0.01275</v>
       </c>
       <c r="R9" s="28" t="n">
-        <v>0.0363</v>
+        <v>0.03825</v>
       </c>
       <c r="S9" s="28" t="n">
-        <v>0.0121</v>
+        <v>0.01275</v>
       </c>
       <c r="T9" s="28" t="n">
-        <v>0.0121</v>
+        <v>0.01275</v>
       </c>
       <c r="U9" s="28" t="n">
-        <v>0.0121</v>
+        <v>0.01275</v>
       </c>
       <c r="V9" s="28" t="n">
-        <v>0.0363</v>
+        <v>0.03825</v>
       </c>
       <c r="W9" s="28" t="n">
-        <v>0.1452</v>
+        <v>0.153</v>
       </c>
     </row>
   </sheetData>
@@ -9674,7 +9674,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="29" t="n">
-        <v>0.0246</v>
+        <v>0.0248</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -9745,7 +9745,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="29" t="n">
-        <v>0.0246</v>
+        <v>0.0248</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -9816,7 +9816,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="29" t="n">
-        <v>0.0246</v>
+        <v>0.0248</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -9840,37 +9840,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="29" t="n">
-        <v>0.00491666666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="29" t="n">
-        <v>0.01475</v>
+        <v>0.0252</v>
       </c>
       <c r="O4" s="29" t="n">
-        <v>0.00491666666666667</v>
+        <v>0.00413333333333333</v>
       </c>
       <c r="P4" s="29" t="n">
-        <v>0.00491666666666667</v>
+        <v>0.00413333333333333</v>
       </c>
       <c r="Q4" s="29" t="n">
-        <v>0.00491666666666667</v>
+        <v>0.00413333333333333</v>
       </c>
       <c r="R4" s="29" t="n">
-        <v>0.01475</v>
+        <v>0.0124</v>
       </c>
       <c r="S4" s="29" t="n">
-        <v>0.00491666666666667</v>
+        <v>0.00413333333333333</v>
       </c>
       <c r="T4" s="29" t="n">
-        <v>0.00491666666666667</v>
+        <v>0.00413333333333333</v>
       </c>
       <c r="U4" s="29" t="n">
-        <v>0.00491666666666667</v>
+        <v>0.00413333333333333</v>
       </c>
       <c r="V4" s="29" t="n">
-        <v>0.01475</v>
+        <v>0.0124</v>
       </c>
       <c r="W4" s="29" t="n">
-        <v>0.059</v>
+        <v>0.0496</v>
       </c>
     </row>
     <row r="5">
@@ -10020,12 +10020,8 @@
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
-      <c r="M7" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="29" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
       <c r="O7" s="29" t="n">
         <v>1</v>
       </c>
@@ -10234,37 +10230,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="29" t="n">
-        <v>0.0133416666666667</v>
+        <v>0</v>
       </c>
       <c r="N10" s="29" t="n">
-        <v>0.040025</v>
+        <v>0</v>
       </c>
       <c r="O10" s="29" t="n">
-        <v>0.0133416666666667</v>
+        <v>0.0111166666666667</v>
       </c>
       <c r="P10" s="29" t="n">
-        <v>0.0133416666666667</v>
+        <v>0.0111166666666667</v>
       </c>
       <c r="Q10" s="29" t="n">
-        <v>0.0133416666666667</v>
+        <v>0.0111166666666667</v>
       </c>
       <c r="R10" s="29" t="n">
-        <v>0.040025</v>
+        <v>0.03335</v>
       </c>
       <c r="S10" s="29" t="n">
-        <v>0.0133416666666667</v>
+        <v>0.0111166666666667</v>
       </c>
       <c r="T10" s="29" t="n">
-        <v>0.0133416666666667</v>
+        <v>0.0111166666666667</v>
       </c>
       <c r="U10" s="29" t="n">
-        <v>0.0133416666666667</v>
+        <v>0.0111166666666667</v>
       </c>
       <c r="V10" s="29" t="n">
-        <v>0.040025</v>
+        <v>0.03335</v>
       </c>
       <c r="W10" s="29" t="n">
-        <v>0.1601</v>
+        <v>0.1334</v>
       </c>
     </row>
   </sheetData>
@@ -10699,7 +10695,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="30" t="n">
-        <v>0.0376</v>
+        <v>0.0353</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10770,7 +10766,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="30" t="n">
-        <v>0.0376</v>
+        <v>0.0353</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10841,7 +10837,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="30" t="n">
-        <v>0.0376</v>
+        <v>0.0353</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10853,10 +10849,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="30" t="n">
-        <v>0.04</v>
+        <v>0.0385</v>
       </c>
       <c r="J4" s="30" t="n">
-        <v>0.0395</v>
+        <v>0.038</v>
       </c>
       <c r="K4" s="30" t="n">
         <v>0</v>
@@ -10865,37 +10861,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="30" t="n">
-        <v>0.00751666666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="30" t="n">
-        <v>0.02255</v>
+        <v>0</v>
       </c>
       <c r="O4" s="30" t="n">
-        <v>0.00751666666666667</v>
+        <v>0.00588333333333333</v>
       </c>
       <c r="P4" s="30" t="n">
-        <v>0.00751666666666667</v>
+        <v>0.00588333333333333</v>
       </c>
       <c r="Q4" s="30" t="n">
-        <v>0.00751666666666667</v>
+        <v>0.00588333333333333</v>
       </c>
       <c r="R4" s="30" t="n">
-        <v>0.02255</v>
+        <v>0.01765</v>
       </c>
       <c r="S4" s="30" t="n">
-        <v>0.00751666666666667</v>
+        <v>0.00588333333333333</v>
       </c>
       <c r="T4" s="30" t="n">
-        <v>0.00751666666666667</v>
+        <v>0.00588333333333333</v>
       </c>
       <c r="U4" s="30" t="n">
-        <v>0.00751666666666667</v>
+        <v>0.00588333333333333</v>
       </c>
       <c r="V4" s="30" t="n">
-        <v>0.02255</v>
+        <v>0.01765</v>
       </c>
       <c r="W4" s="30" t="n">
-        <v>0.0902</v>
+        <v>0.0706</v>
       </c>
     </row>
     <row r="5">
@@ -11053,9 +11049,7 @@
       <c r="L7" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="30" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="30"/>
       <c r="N7" s="30" t="n">
         <v>0</v>
       </c>
@@ -11101,7 +11095,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="30" t="n">
-        <v>0.0311</v>
+        <v>0.0307</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -11172,7 +11166,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="30" t="n">
-        <v>0.0311</v>
+        <v>0.0307</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -11243,7 +11237,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="30" t="n">
-        <v>0.0311</v>
+        <v>0.0307</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -11252,13 +11246,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="30" t="n">
-        <v>0.022</v>
+        <v>0.0222</v>
       </c>
       <c r="I10" s="30" t="n">
-        <v>0.0109</v>
+        <v>0.011</v>
       </c>
       <c r="J10" s="30" t="n">
-        <v>0.0326</v>
+        <v>0.033</v>
       </c>
       <c r="K10" s="30" t="n">
         <v>0</v>
@@ -11267,37 +11261,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="30" t="n">
-        <v>0.00621666666666667</v>
+        <v>0</v>
       </c>
       <c r="N10" s="30" t="n">
-        <v>0.01865</v>
+        <v>0</v>
       </c>
       <c r="O10" s="30" t="n">
-        <v>0.00621666666666667</v>
+        <v>0.00511666666666667</v>
       </c>
       <c r="P10" s="30" t="n">
-        <v>0.00621666666666667</v>
+        <v>0.00511666666666667</v>
       </c>
       <c r="Q10" s="30" t="n">
-        <v>0.00621666666666667</v>
+        <v>0.00511666666666667</v>
       </c>
       <c r="R10" s="30" t="n">
-        <v>0.01865</v>
+        <v>0.01535</v>
       </c>
       <c r="S10" s="30" t="n">
-        <v>0.00621666666666667</v>
+        <v>0.00511666666666667</v>
       </c>
       <c r="T10" s="30" t="n">
-        <v>0.00621666666666667</v>
+        <v>0.00511666666666667</v>
       </c>
       <c r="U10" s="30" t="n">
-        <v>0.00621666666666667</v>
+        <v>0.00511666666666667</v>
       </c>
       <c r="V10" s="30" t="n">
-        <v>0.01865</v>
+        <v>0.01535</v>
       </c>
       <c r="W10" s="30" t="n">
-        <v>0.0746</v>
+        <v>0.0614</v>
       </c>
     </row>
   </sheetData>
@@ -11779,7 +11773,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="32" t="n">
-        <v>0.0355</v>
+        <v>0.0473</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11850,7 +11844,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="32" t="n">
-        <v>0.0355</v>
+        <v>0.0473</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11921,7 +11915,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="32" t="n">
-        <v>0.0355</v>
+        <v>0.0473</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11945,37 +11939,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="32" t="n">
-        <v>0.0071</v>
+        <v>0.0119</v>
       </c>
       <c r="N4" s="32" t="n">
-        <v>0.0213</v>
+        <v>0.0119</v>
       </c>
       <c r="O4" s="32" t="n">
-        <v>0.0071</v>
+        <v>0.00788333333333333</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>0.0071</v>
+        <v>0.00788333333333333</v>
       </c>
       <c r="Q4" s="32" t="n">
-        <v>0.0071</v>
+        <v>0.00788333333333333</v>
       </c>
       <c r="R4" s="32" t="n">
-        <v>0.0213</v>
+        <v>0.02365</v>
       </c>
       <c r="S4" s="32" t="n">
-        <v>0.0071</v>
+        <v>0.00788333333333333</v>
       </c>
       <c r="T4" s="32" t="n">
-        <v>0.0071</v>
+        <v>0.00788333333333333</v>
       </c>
       <c r="U4" s="32" t="n">
-        <v>0.0071</v>
+        <v>0.00788333333333333</v>
       </c>
       <c r="V4" s="32" t="n">
-        <v>0.0213</v>
+        <v>0.02365</v>
       </c>
       <c r="W4" s="32" t="n">
-        <v>0.0852</v>
+        <v>0.0946</v>
       </c>
     </row>
     <row r="5">
@@ -12108,7 +12102,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="32" t="n">
-        <v>0.0229</v>
+        <v>0.0273</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -12179,7 +12173,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="32" t="n">
-        <v>0.0229</v>
+        <v>0.0273</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -12250,7 +12244,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="32" t="n">
-        <v>0.0229</v>
+        <v>0.0273</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -12274,37 +12268,37 @@
         <v>0.0045</v>
       </c>
       <c r="M9" s="32" t="n">
-        <v>0.00458333333333333</v>
+        <v>0.0045</v>
       </c>
       <c r="N9" s="32" t="n">
-        <v>0.01375</v>
+        <v>0.0135</v>
       </c>
       <c r="O9" s="32" t="n">
-        <v>0.00458333333333333</v>
+        <v>0.00455</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>0.00458333333333333</v>
+        <v>0.00455</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>0.00458333333333333</v>
+        <v>0.00455</v>
       </c>
       <c r="R9" s="32" t="n">
-        <v>0.01375</v>
+        <v>0.01365</v>
       </c>
       <c r="S9" s="32" t="n">
-        <v>0.00458333333333333</v>
+        <v>0.00455</v>
       </c>
       <c r="T9" s="32" t="n">
-        <v>0.00458333333333333</v>
+        <v>0.00455</v>
       </c>
       <c r="U9" s="32" t="n">
-        <v>0.00458333333333333</v>
+        <v>0.00455</v>
       </c>
       <c r="V9" s="32" t="n">
-        <v>0.01375</v>
+        <v>0.01365</v>
       </c>
       <c r="W9" s="32" t="n">
-        <v>0.055</v>
+        <v>0.0546</v>
       </c>
     </row>
   </sheetData>
@@ -12582,12 +12576,8 @@
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
-      <c r="M5" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
       <c r="O5" s="33" t="n">
         <v>0</v>
       </c>
@@ -12999,6 +12989,67 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="35" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -13155,77 +13206,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="36" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -13330,10 +13310,18 @@
       <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="G2" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="37" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" s="37" t="n">
         <v>0</v>
       </c>
@@ -13388,7 +13376,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -13397,41 +13385,110 @@
       <c r="H3" s="37"/>
       <c r="I3" s="37"/>
       <c r="J3" s="37"/>
-      <c r="K3" s="37" t="n">
-        <v>0</v>
-      </c>
+      <c r="K3" s="37"/>
       <c r="L3" s="37"/>
       <c r="M3" s="37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13531,11 +13588,13 @@
         <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="38"/>
+        <v>26</v>
+      </c>
+      <c r="E2" s="38" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2" s="38" t="n">
         <v>0</v>
@@ -13550,72 +13609,43 @@
         <v>0</v>
       </c>
       <c r="K2" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="38" t="n">
+        <v>0</v>
+      </c>
       <c r="N2" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
+        <v>0</v>
+      </c>
+      <c r="O2" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="38" t="n">
+        <v>0</v>
+      </c>
       <c r="W2" s="38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="38"/>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="38" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13714,23 +13744,33 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E2" s="39" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="K2" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="39" t="n">
+        <v>0</v>
+      </c>
       <c r="P2" s="39" t="n">
         <v>0</v>
       </c>
@@ -13767,23 +13807,29 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="39" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="K3" s="39" t="n">
+        <v>0</v>
+      </c>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="N3" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="39" t="n">
+        <v>0</v>
+      </c>
       <c r="P3" s="39" t="n">
         <v>0</v>
       </c>
@@ -13806,75 +13852,6 @@
         <v>0</v>
       </c>
       <c r="W3" s="39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14190,7 +14167,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.7895</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -14261,7 +14238,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.75</v>
+        <v>0.7895</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -14332,7 +14309,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.75</v>
+        <v>0.7895</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -14356,37 +14333,683 @@
         <v>0.3333</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.45</v>
+        <v>0.303</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.15</v>
+        <v>0.131583333333333</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.15</v>
+        <v>0.131583333333333</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.15</v>
+        <v>0.131583333333333</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.45</v>
+        <v>0.39475</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.15</v>
+        <v>0.131583333333333</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>0.15</v>
+        <v>0.131583333333333</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>0.15</v>
+        <v>0.131583333333333</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.45</v>
+        <v>0.39475</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>1.8</v>
+        <v>1.579</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="41" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="42" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14850,12 +15473,8 @@
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
       <c r="O7" s="5" t="n">
         <v>0.666666666666667</v>
       </c>
@@ -14898,7 +15517,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0543</v>
+        <v>0.0529</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -14969,7 +15588,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0543</v>
+        <v>0.0529</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -15040,7 +15659,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.0543</v>
+        <v>0.0529</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -15049,52 +15668,52 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="n">
+        <v>0.0229</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.0078</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.0305</v>
+      </c>
+      <c r="K10" s="5" t="n">
         <v>0.0233</v>
       </c>
-      <c r="I10" s="5" t="n">
-        <v>0.0079</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>0.0236</v>
-      </c>
       <c r="L10" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>0.0108583333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.032575</v>
+        <v>0.0224</v>
       </c>
       <c r="O10" s="5" t="n">
-        <v>0.0108583333333333</v>
+        <v>0.00881666666666667</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0.0108583333333333</v>
+        <v>0.00881666666666667</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>0.0108583333333333</v>
+        <v>0.00881666666666667</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>0.032575</v>
+        <v>0.02645</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0.0108583333333333</v>
+        <v>0.00881666666666667</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>0.0108583333333333</v>
+        <v>0.00881666666666667</v>
       </c>
       <c r="U10" s="5" t="n">
-        <v>0.0108583333333333</v>
+        <v>0.00881666666666667</v>
       </c>
       <c r="V10" s="5" t="n">
-        <v>0.032575</v>
+        <v>0.02645</v>
       </c>
       <c r="W10" s="5" t="n">
-        <v>0.1303</v>
+        <v>0.1058</v>
       </c>
     </row>
   </sheetData>
@@ -15362,37 +15981,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0.00258333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.00775</v>
+        <v>0.0129</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00258333333333333</v>
+        <v>0.00215</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.00258333333333333</v>
+        <v>0.00215</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.00258333333333333</v>
+        <v>0.00215</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.00775</v>
+        <v>0.00645</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.00258333333333333</v>
+        <v>0.00215</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.00258333333333333</v>
+        <v>0.00215</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.00258333333333333</v>
+        <v>0.00215</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00775</v>
+        <v>0.00645</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.031</v>
+        <v>0.0258</v>
       </c>
     </row>
     <row r="5">
@@ -15550,9 +16169,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="6"/>
       <c r="N7" s="6" t="n">
         <v>1</v>
       </c>
@@ -15598,7 +16215,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0373</v>
+        <v>0.0554</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -15669,7 +16286,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0373</v>
+        <v>0.0554</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -15740,7 +16357,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.0373</v>
+        <v>0.0554</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -15749,52 +16366,52 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
+        <v>0.0179</v>
+      </c>
+      <c r="I10" s="6" t="n">
         <v>0.0182</v>
       </c>
-      <c r="I10" s="6" t="n">
-        <v>0.0185</v>
-      </c>
       <c r="J10" s="6" t="n">
-        <v>0.0366</v>
+        <v>0.0359</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>0</v>
+        <v>0.0189</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>0.00745833333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.022375</v>
+        <v>0.019</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00745833333333333</v>
+        <v>0.00923333333333333</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.00745833333333333</v>
+        <v>0.00923333333333333</v>
       </c>
       <c r="Q10" s="6" t="n">
-        <v>0.00745833333333333</v>
+        <v>0.00923333333333333</v>
       </c>
       <c r="R10" s="6" t="n">
-        <v>0.022375</v>
+        <v>0.0277</v>
       </c>
       <c r="S10" s="6" t="n">
-        <v>0.00745833333333333</v>
+        <v>0.00923333333333333</v>
       </c>
       <c r="T10" s="6" t="n">
-        <v>0.00745833333333333</v>
+        <v>0.00923333333333333</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.00745833333333333</v>
+        <v>0.00923333333333333</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.022375</v>
+        <v>0.0277</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0895</v>
+        <v>0.1108</v>
       </c>
     </row>
   </sheetData>
@@ -15896,7 +16513,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.1397</v>
+        <v>0.1765</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -15967,7 +16584,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.1397</v>
+        <v>0.1765</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -16038,7 +16655,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.1397</v>
+        <v>0.1765</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -16050,49 +16667,49 @@
         <v>0</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>0.0278</v>
+        <v>0.0286</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0272</v>
+        <v>0.028</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>0.0286</v>
+        <v>0.0294</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>0.0882</v>
+        <v>0.0938</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0.0279416666666667</v>
+        <v>0.0323</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.083825</v>
+        <v>0.1548</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.0279416666666667</v>
+        <v>0.0294166666666667</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.0279416666666667</v>
+        <v>0.0294166666666667</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.0279416666666667</v>
+        <v>0.0294166666666667</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.083825</v>
+        <v>0.08825</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.0279416666666667</v>
+        <v>0.0294166666666667</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.0279416666666667</v>
+        <v>0.0294166666666667</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.0279416666666667</v>
+        <v>0.0294166666666667</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.083825</v>
+        <v>0.08825</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0.3353</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="5">
@@ -16231,7 +16848,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0</v>
+        <v>0.0377</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -16302,7 +16919,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0</v>
+        <v>0.0377</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -16373,7 +16990,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0</v>
+        <v>0.0377</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -16397,37 +17014,37 @@
         <v>0</v>
       </c>
       <c r="M9" s="7" t="n">
-        <v>0</v>
+        <v>0.0476</v>
       </c>
       <c r="N9" s="7" t="n">
-        <v>0</v>
+        <v>0.0417</v>
       </c>
       <c r="O9" s="7" t="n">
-        <v>0</v>
+        <v>0.00628333333333333</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>0</v>
+        <v>0.00628333333333333</v>
       </c>
       <c r="Q9" s="7" t="n">
-        <v>0</v>
+        <v>0.00628333333333333</v>
       </c>
       <c r="R9" s="7" t="n">
-        <v>0</v>
+        <v>0.01885</v>
       </c>
       <c r="S9" s="7" t="n">
-        <v>0</v>
+        <v>0.00628333333333333</v>
       </c>
       <c r="T9" s="7" t="n">
-        <v>0</v>
+        <v>0.00628333333333333</v>
       </c>
       <c r="U9" s="7" t="n">
-        <v>0</v>
+        <v>0.00628333333333333</v>
       </c>
       <c r="V9" s="7" t="n">
-        <v>0</v>
+        <v>0.01885</v>
       </c>
       <c r="W9" s="7" t="n">
-        <v>0</v>
+        <v>0.0754</v>
       </c>
     </row>
   </sheetData>
@@ -17206,37 +17823,37 @@
         <v>0</v>
       </c>
       <c r="M7" s="9" t="n">
-        <v>0.111116666666667</v>
+        <v>0</v>
       </c>
       <c r="N7" s="9" t="n">
-        <v>0.33335</v>
+        <v>0.5882</v>
       </c>
       <c r="O7" s="9" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0926</v>
       </c>
       <c r="P7" s="9" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0926</v>
       </c>
       <c r="Q7" s="9" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0926</v>
       </c>
       <c r="R7" s="9" t="n">
-        <v>0.33335</v>
+        <v>0.2778</v>
       </c>
       <c r="S7" s="9" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0926</v>
       </c>
       <c r="T7" s="9" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0926</v>
       </c>
       <c r="U7" s="9" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0926</v>
       </c>
       <c r="V7" s="9" t="n">
-        <v>0.33335</v>
+        <v>0.2778</v>
       </c>
       <c r="W7" s="9" t="n">
-        <v>1.3334</v>
+        <v>1.1112</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_IPS Gearing Division.xlsx
+++ b/outputs/SORs/SOR Testing_IPS Gearing Division.xlsx
@@ -778,7 +778,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.2351</v>
+        <v>0.2338</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -849,7 +849,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.2351</v>
+        <v>0.2338</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -920,7 +920,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.2351</v>
+        <v>0.2338</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -950,31 +950,31 @@
         <v>0.1676</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.0391833333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.0391833333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.0391833333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.11755</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.0391833333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.0391833333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.0391833333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.11755</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0.4702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -991,7 +991,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.125</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1052,7 +1052,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.125</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1123,7 +1123,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.125</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1149,31 +1149,31 @@
         <v>0</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>0.125</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>0.125</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0.125</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0.125</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>0.125</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0.125</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>0.125</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>0.125</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="8">
@@ -1190,7 +1190,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.5056</v>
+        <v>0.6056</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1261,7 +1261,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.5056</v>
+        <v>0.6056</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1332,7 +1332,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.5056</v>
+        <v>0.6056</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1344,49 +1344,49 @@
         <v>0.068</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>0.0757</v>
+        <v>0.0724</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>0.2153</v>
+        <v>0.2118</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>0.0978</v>
+        <v>0.0981</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>0.0836</v>
+        <v>0.0804</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>0.1037</v>
+        <v>0.1032</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0.2853</v>
+        <v>0.2817</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0.0842666666666667</v>
+        <v>0.1038</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0.0842666666666667</v>
+        <v>0.0865166666666667</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>0.0842666666666667</v>
+        <v>0.0865166666666667</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0.2528</v>
+        <v>0.25955</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0.0842666666666667</v>
+        <v>0.0865166666666667</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0.0842666666666667</v>
+        <v>0.0865166666666667</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.0842666666666667</v>
+        <v>0.0865166666666667</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.2528</v>
+        <v>0.25955</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>1.0112</v>
+        <v>1.0382</v>
       </c>
     </row>
   </sheetData>
@@ -2715,7 +2715,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0.1067</v>
+        <v>0.1078</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2786,7 +2786,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0.1067</v>
+        <v>0.1078</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2857,7 +2857,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0.1067</v>
+        <v>0.1078</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2887,31 +2887,31 @@
         <v>0.0833</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0.0177833333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0.0177833333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0.0177833333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0.05335</v>
+        <v>0</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0.0177833333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0.0177833333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0.0177833333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0.05335</v>
+        <v>0</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0.2134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3069,9 +3069,7 @@
       <c r="N7" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="14"/>
       <c r="P7" s="14" t="n">
         <v>1</v>
       </c>
@@ -3111,7 +3109,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.0376</v>
+        <v>0.0607</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3182,7 +3180,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.0376</v>
+        <v>0.0607</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3253,7 +3251,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0.0376</v>
+        <v>0.0607</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3283,31 +3281,31 @@
         <v>0.0234</v>
       </c>
       <c r="O10" s="14" t="n">
-        <v>0.00626666666666667</v>
+        <v>0.024</v>
       </c>
       <c r="P10" s="14" t="n">
-        <v>0.00626666666666667</v>
+        <v>0.008675</v>
       </c>
       <c r="Q10" s="14" t="n">
-        <v>0.00626666666666667</v>
+        <v>0.008675</v>
       </c>
       <c r="R10" s="14" t="n">
-        <v>0.0188</v>
+        <v>0.026025</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>0.00626666666666667</v>
+        <v>0.008675</v>
       </c>
       <c r="T10" s="14" t="n">
-        <v>0.00626666666666667</v>
+        <v>0.008675</v>
       </c>
       <c r="U10" s="14" t="n">
-        <v>0.00626666666666667</v>
+        <v>0.008675</v>
       </c>
       <c r="V10" s="14" t="n">
-        <v>0.0188</v>
+        <v>0.026025</v>
       </c>
       <c r="W10" s="14" t="n">
-        <v>0.0752</v>
+        <v>0.1041</v>
       </c>
     </row>
   </sheetData>
@@ -3409,7 +3407,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.0379</v>
+        <v>0.0566</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3480,7 +3478,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.0379</v>
+        <v>0.0566</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3551,7 +3549,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.0379</v>
+        <v>0.0566</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3581,31 +3579,31 @@
         <v>0.0189</v>
       </c>
       <c r="O4" s="15" t="n">
-        <v>0.00631666666666667</v>
+        <v>0.0185</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>0.00631666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0.00631666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0.01895</v>
+        <v>0</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0.00631666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0.00631666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0.00631666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0.01895</v>
+        <v>0</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>0.0758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3622,7 +3620,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -3681,7 +3679,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -3752,7 +3750,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -3770,31 +3768,31 @@
         <v>1</v>
       </c>
       <c r="O7" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="15" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q7" s="15" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="R7" s="15" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="S7" s="15" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="T7" s="15" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="U7" s="15" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="V7" s="15" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="W7" s="15" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -3955,7 +3953,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>0.1449</v>
+        <v>0.2</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4026,7 +4024,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="16" t="n">
-        <v>0.1449</v>
+        <v>0.2</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4097,7 +4095,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="16" t="n">
-        <v>0.1449</v>
+        <v>0.2</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4127,31 +4125,31 @@
         <v>0.1036</v>
       </c>
       <c r="O4" s="16" t="n">
-        <v>0.02415</v>
+        <v>0.0625</v>
       </c>
       <c r="P4" s="16" t="n">
-        <v>0.02415</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="16" t="n">
-        <v>0.02415</v>
+        <v>0</v>
       </c>
       <c r="R4" s="16" t="n">
-        <v>0.07245</v>
+        <v>0</v>
       </c>
       <c r="S4" s="16" t="n">
-        <v>0.02415</v>
+        <v>0</v>
       </c>
       <c r="T4" s="16" t="n">
-        <v>0.02415</v>
+        <v>0</v>
       </c>
       <c r="U4" s="16" t="n">
-        <v>0.02415</v>
+        <v>0</v>
       </c>
       <c r="V4" s="16" t="n">
-        <v>0.07245</v>
+        <v>0</v>
       </c>
       <c r="W4" s="16" t="n">
-        <v>0.2898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4282,7 +4280,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="16" t="n">
-        <v>0.0498</v>
+        <v>0.0499</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4353,7 +4351,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0.0498</v>
+        <v>0.0499</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4424,7 +4422,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.0498</v>
+        <v>0.0499</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -4454,31 +4452,31 @@
         <v>0.0509</v>
       </c>
       <c r="O9" s="16" t="n">
-        <v>0.0083</v>
+        <v>0</v>
       </c>
       <c r="P9" s="16" t="n">
-        <v>0.0083</v>
+        <v>0.007125</v>
       </c>
       <c r="Q9" s="16" t="n">
-        <v>0.0083</v>
+        <v>0.007125</v>
       </c>
       <c r="R9" s="16" t="n">
-        <v>0.0249</v>
+        <v>0.021375</v>
       </c>
       <c r="S9" s="16" t="n">
-        <v>0.0083</v>
+        <v>0.007125</v>
       </c>
       <c r="T9" s="16" t="n">
-        <v>0.0083</v>
+        <v>0.007125</v>
       </c>
       <c r="U9" s="16" t="n">
-        <v>0.0083</v>
+        <v>0.007125</v>
       </c>
       <c r="V9" s="16" t="n">
-        <v>0.0249</v>
+        <v>0.021375</v>
       </c>
       <c r="W9" s="16" t="n">
-        <v>0.0996</v>
+        <v>0.0855</v>
       </c>
     </row>
   </sheetData>
@@ -5772,7 +5770,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="20" t="n">
-        <v>0.219</v>
+        <v>0.2239</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5843,7 +5841,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="20" t="n">
-        <v>0.219</v>
+        <v>0.2239</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5914,7 +5912,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="20" t="n">
-        <v>0.219</v>
+        <v>0.2239</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5944,31 +5942,31 @@
         <v>0.1504</v>
       </c>
       <c r="O4" s="20" t="n">
-        <v>0.0365</v>
+        <v>0</v>
       </c>
       <c r="P4" s="20" t="n">
-        <v>0.0365</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="20" t="n">
-        <v>0.0365</v>
+        <v>0</v>
       </c>
       <c r="R4" s="20" t="n">
-        <v>0.1095</v>
+        <v>0</v>
       </c>
       <c r="S4" s="20" t="n">
-        <v>0.0365</v>
+        <v>0</v>
       </c>
       <c r="T4" s="20" t="n">
-        <v>0.0365</v>
+        <v>0</v>
       </c>
       <c r="U4" s="20" t="n">
-        <v>0.0365</v>
+        <v>0</v>
       </c>
       <c r="V4" s="20" t="n">
-        <v>0.1095</v>
+        <v>0</v>
       </c>
       <c r="W4" s="20" t="n">
-        <v>0.438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6103,7 +6101,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="20" t="n">
-        <v>0.019</v>
+        <v>0.0382</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -6174,7 +6172,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="20" t="n">
-        <v>0.019</v>
+        <v>0.0382</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -6245,7 +6243,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="20" t="n">
-        <v>0.019</v>
+        <v>0.0382</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -6275,31 +6273,31 @@
         <v>0.0191</v>
       </c>
       <c r="O9" s="20" t="n">
-        <v>0.00316666666666667</v>
+        <v>0.0196</v>
       </c>
       <c r="P9" s="20" t="n">
-        <v>0.00316666666666667</v>
+        <v>0.00545833333333333</v>
       </c>
       <c r="Q9" s="20" t="n">
-        <v>0.00316666666666667</v>
+        <v>0.00545833333333333</v>
       </c>
       <c r="R9" s="20" t="n">
-        <v>0.0095</v>
+        <v>0.016375</v>
       </c>
       <c r="S9" s="20" t="n">
-        <v>0.00316666666666667</v>
+        <v>0.00545833333333333</v>
       </c>
       <c r="T9" s="20" t="n">
-        <v>0.00316666666666667</v>
+        <v>0.00545833333333333</v>
       </c>
       <c r="U9" s="20" t="n">
-        <v>0.00316666666666667</v>
+        <v>0.00545833333333333</v>
       </c>
       <c r="V9" s="20" t="n">
-        <v>0.0095</v>
+        <v>0.016375</v>
       </c>
       <c r="W9" s="20" t="n">
-        <v>0.038</v>
+        <v>0.0655</v>
       </c>
     </row>
   </sheetData>
@@ -6600,6 +6598,61 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -7306,31 +7359,31 @@
         <v>0</v>
       </c>
       <c r="O6" s="23" t="n">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="P6" s="23" t="n">
-        <v>0.166666666666667</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="Q6" s="23" t="n">
-        <v>0.166666666666667</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="R6" s="23" t="n">
-        <v>0.5</v>
+        <v>0.428575</v>
       </c>
       <c r="S6" s="23" t="n">
-        <v>0.166666666666667</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="T6" s="23" t="n">
-        <v>0.166666666666667</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="U6" s="23" t="n">
-        <v>0.166666666666667</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="V6" s="23" t="n">
-        <v>0.5</v>
+        <v>0.428575</v>
       </c>
       <c r="W6" s="23" t="n">
-        <v>2</v>
+        <v>1.7143</v>
       </c>
     </row>
   </sheetData>
@@ -8053,7 +8106,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="25" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -8124,7 +8177,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="25" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8195,7 +8248,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="25" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -8225,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="25" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="P4" s="25" t="n">
         <v>0</v>
@@ -8926,9 +8979,7 @@
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
-      <c r="O4" s="27" t="n">
-        <v>0</v>
-      </c>
+      <c r="O4" s="27"/>
       <c r="P4" s="27" t="n">
         <v>0</v>
       </c>
@@ -9053,7 +9104,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="28" t="n">
-        <v>0.069</v>
+        <v>0.0746</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -9124,7 +9175,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="28" t="n">
-        <v>0.069</v>
+        <v>0.0746</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -9195,7 +9246,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="28" t="n">
-        <v>0.069</v>
+        <v>0.0746</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -9213,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="28" t="n">
-        <v>0.0714</v>
+        <v>0.0769</v>
       </c>
       <c r="L4" s="28" t="n">
         <v>0</v>
@@ -9222,34 +9273,34 @@
         <v>0</v>
       </c>
       <c r="N4" s="28" t="n">
-        <v>0.0714</v>
+        <v>0.0769</v>
       </c>
       <c r="O4" s="28" t="n">
-        <v>0.0115</v>
+        <v>0</v>
       </c>
       <c r="P4" s="28" t="n">
-        <v>0.0115</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="28" t="n">
-        <v>0.0115</v>
+        <v>0</v>
       </c>
       <c r="R4" s="28" t="n">
-        <v>0.0345</v>
+        <v>0</v>
       </c>
       <c r="S4" s="28" t="n">
-        <v>0.0115</v>
+        <v>0</v>
       </c>
       <c r="T4" s="28" t="n">
-        <v>0.0115</v>
+        <v>0</v>
       </c>
       <c r="U4" s="28" t="n">
-        <v>0.0115</v>
+        <v>0</v>
       </c>
       <c r="V4" s="28" t="n">
-        <v>0.0345</v>
+        <v>0</v>
       </c>
       <c r="W4" s="28" t="n">
-        <v>0.138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -9376,7 +9427,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="28" t="n">
-        <v>0.0765</v>
+        <v>0.0945</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -9447,7 +9498,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="28" t="n">
-        <v>0.0765</v>
+        <v>0.0945</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -9518,7 +9569,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="28" t="n">
-        <v>0.0765</v>
+        <v>0.0945</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -9548,31 +9599,31 @@
         <v>0.0368</v>
       </c>
       <c r="O9" s="28" t="n">
-        <v>0.01275</v>
+        <v>0.0179</v>
       </c>
       <c r="P9" s="28" t="n">
-        <v>0.01275</v>
+        <v>0.0135</v>
       </c>
       <c r="Q9" s="28" t="n">
-        <v>0.01275</v>
+        <v>0.0135</v>
       </c>
       <c r="R9" s="28" t="n">
-        <v>0.03825</v>
+        <v>0.0405</v>
       </c>
       <c r="S9" s="28" t="n">
-        <v>0.01275</v>
+        <v>0.0135</v>
       </c>
       <c r="T9" s="28" t="n">
-        <v>0.01275</v>
+        <v>0.0135</v>
       </c>
       <c r="U9" s="28" t="n">
-        <v>0.01275</v>
+        <v>0.0135</v>
       </c>
       <c r="V9" s="28" t="n">
-        <v>0.03825</v>
+        <v>0.0405</v>
       </c>
       <c r="W9" s="28" t="n">
-        <v>0.153</v>
+        <v>0.162</v>
       </c>
     </row>
   </sheetData>
@@ -9674,7 +9725,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="29" t="n">
-        <v>0.0248</v>
+        <v>0.0249</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -9745,7 +9796,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="29" t="n">
-        <v>0.0248</v>
+        <v>0.0249</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -9816,7 +9867,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="29" t="n">
-        <v>0.0248</v>
+        <v>0.0249</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -9846,31 +9897,31 @@
         <v>0.0252</v>
       </c>
       <c r="O4" s="29" t="n">
-        <v>0.00413333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="29" t="n">
-        <v>0.00413333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="29" t="n">
-        <v>0.00413333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="29" t="n">
-        <v>0.0124</v>
+        <v>0</v>
       </c>
       <c r="S4" s="29" t="n">
-        <v>0.00413333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="29" t="n">
-        <v>0.00413333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="29" t="n">
-        <v>0.00413333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="29" t="n">
-        <v>0.0124</v>
+        <v>0</v>
       </c>
       <c r="W4" s="29" t="n">
-        <v>0.0496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -10022,9 +10073,7 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
-      <c r="O7" s="29" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="29"/>
       <c r="P7" s="29" t="n">
         <v>1</v>
       </c>
@@ -10236,31 +10285,31 @@
         <v>0</v>
       </c>
       <c r="O10" s="29" t="n">
-        <v>0.0111166666666667</v>
+        <v>0</v>
       </c>
       <c r="P10" s="29" t="n">
-        <v>0.0111166666666667</v>
+        <v>0.009525</v>
       </c>
       <c r="Q10" s="29" t="n">
-        <v>0.0111166666666667</v>
+        <v>0.009525</v>
       </c>
       <c r="R10" s="29" t="n">
-        <v>0.03335</v>
+        <v>0.028575</v>
       </c>
       <c r="S10" s="29" t="n">
-        <v>0.0111166666666667</v>
+        <v>0.009525</v>
       </c>
       <c r="T10" s="29" t="n">
-        <v>0.0111166666666667</v>
+        <v>0.009525</v>
       </c>
       <c r="U10" s="29" t="n">
-        <v>0.0111166666666667</v>
+        <v>0.009525</v>
       </c>
       <c r="V10" s="29" t="n">
-        <v>0.03335</v>
+        <v>0.028575</v>
       </c>
       <c r="W10" s="29" t="n">
-        <v>0.1334</v>
+        <v>0.1143</v>
       </c>
     </row>
   </sheetData>
@@ -10695,7 +10744,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="30" t="n">
-        <v>0.0353</v>
+        <v>0.0358</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10766,7 +10815,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="30" t="n">
-        <v>0.0353</v>
+        <v>0.0358</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10837,7 +10886,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="30" t="n">
-        <v>0.0353</v>
+        <v>0.0358</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10849,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="30" t="n">
-        <v>0.0385</v>
+        <v>0.04</v>
       </c>
       <c r="J4" s="30" t="n">
-        <v>0.038</v>
+        <v>0.0395</v>
       </c>
       <c r="K4" s="30" t="n">
         <v>0</v>
@@ -10867,31 +10916,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="30" t="n">
-        <v>0.00588333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="30" t="n">
-        <v>0.00588333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="30" t="n">
-        <v>0.00588333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="30" t="n">
-        <v>0.01765</v>
+        <v>0</v>
       </c>
       <c r="S4" s="30" t="n">
-        <v>0.00588333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="30" t="n">
-        <v>0.00588333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="30" t="n">
-        <v>0.00588333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="30" t="n">
-        <v>0.01765</v>
+        <v>0</v>
       </c>
       <c r="W4" s="30" t="n">
-        <v>0.0706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -11095,7 +11144,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="30" t="n">
-        <v>0.0307</v>
+        <v>0.0396</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -11166,7 +11215,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="30" t="n">
-        <v>0.0307</v>
+        <v>0.0396</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -11237,7 +11286,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="30" t="n">
-        <v>0.0307</v>
+        <v>0.0396</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -11246,13 +11295,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="30" t="n">
-        <v>0.0222</v>
+        <v>0.022</v>
       </c>
       <c r="I10" s="30" t="n">
-        <v>0.011</v>
+        <v>0.0109</v>
       </c>
       <c r="J10" s="30" t="n">
-        <v>0.033</v>
+        <v>0.0326</v>
       </c>
       <c r="K10" s="30" t="n">
         <v>0</v>
@@ -11267,31 +11316,31 @@
         <v>0</v>
       </c>
       <c r="O10" s="30" t="n">
-        <v>0.00511666666666667</v>
+        <v>0.0089</v>
       </c>
       <c r="P10" s="30" t="n">
-        <v>0.00511666666666667</v>
+        <v>0.00565833333333333</v>
       </c>
       <c r="Q10" s="30" t="n">
-        <v>0.00511666666666667</v>
+        <v>0.00565833333333333</v>
       </c>
       <c r="R10" s="30" t="n">
-        <v>0.01535</v>
+        <v>0.016975</v>
       </c>
       <c r="S10" s="30" t="n">
-        <v>0.00511666666666667</v>
+        <v>0.00565833333333333</v>
       </c>
       <c r="T10" s="30" t="n">
-        <v>0.00511666666666667</v>
+        <v>0.00565833333333333</v>
       </c>
       <c r="U10" s="30" t="n">
-        <v>0.00511666666666667</v>
+        <v>0.00565833333333333</v>
       </c>
       <c r="V10" s="30" t="n">
-        <v>0.01535</v>
+        <v>0.016975</v>
       </c>
       <c r="W10" s="30" t="n">
-        <v>0.0614</v>
+        <v>0.0679</v>
       </c>
     </row>
   </sheetData>
@@ -11773,7 +11822,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="32" t="n">
-        <v>0.0473</v>
+        <v>0.0474</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11844,7 +11893,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="32" t="n">
-        <v>0.0473</v>
+        <v>0.0474</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11915,7 +11964,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="32" t="n">
-        <v>0.0473</v>
+        <v>0.0474</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11945,31 +11994,31 @@
         <v>0.0119</v>
       </c>
       <c r="O4" s="32" t="n">
-        <v>0.00788333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>0.00788333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="32" t="n">
-        <v>0.00788333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="32" t="n">
-        <v>0.02365</v>
+        <v>0</v>
       </c>
       <c r="S4" s="32" t="n">
-        <v>0.00788333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="32" t="n">
-        <v>0.00788333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="32" t="n">
-        <v>0.00788333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="32" t="n">
-        <v>0.02365</v>
+        <v>0</v>
       </c>
       <c r="W4" s="32" t="n">
-        <v>0.0946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -12274,31 +12323,31 @@
         <v>0.0135</v>
       </c>
       <c r="O9" s="32" t="n">
-        <v>0.00455</v>
+        <v>0</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>0.00455</v>
+        <v>0.0039</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>0.00455</v>
+        <v>0.0039</v>
       </c>
       <c r="R9" s="32" t="n">
-        <v>0.01365</v>
+        <v>0.0117</v>
       </c>
       <c r="S9" s="32" t="n">
-        <v>0.00455</v>
+        <v>0.0039</v>
       </c>
       <c r="T9" s="32" t="n">
-        <v>0.00455</v>
+        <v>0.0039</v>
       </c>
       <c r="U9" s="32" t="n">
-        <v>0.00455</v>
+        <v>0.0039</v>
       </c>
       <c r="V9" s="32" t="n">
-        <v>0.01365</v>
+        <v>0.0117</v>
       </c>
       <c r="W9" s="32" t="n">
-        <v>0.0546</v>
+        <v>0.0468</v>
       </c>
     </row>
   </sheetData>
@@ -12400,7 +12449,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -12445,7 +12494,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -12490,7 +12539,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -12520,31 +12569,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="33" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="33" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="33" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="33" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="33" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="33" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="33" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -12566,14 +12615,10 @@
       <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
@@ -12932,7 +12977,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="35" t="n">
-        <v>0</v>
+        <v>0.0881</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -12962,7 +13007,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="35" t="n">
-        <v>0</v>
+        <v>0.0952</v>
       </c>
       <c r="P2" s="35" t="n">
         <v>0</v>
@@ -13393,9 +13438,7 @@
       <c r="N3" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="O3" s="37" t="n">
-        <v>1</v>
-      </c>
+      <c r="O3" s="37"/>
       <c r="P3" s="37" t="n">
         <v>1</v>
       </c>
@@ -13435,7 +13478,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="37" t="n">
-        <v>0</v>
+        <v>0.0268</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -13465,31 +13508,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="37" t="n">
-        <v>0</v>
+        <v>0.0263</v>
       </c>
       <c r="P4" s="37" t="n">
-        <v>0</v>
+        <v>0.003825</v>
       </c>
       <c r="Q4" s="37" t="n">
-        <v>0</v>
+        <v>0.003825</v>
       </c>
       <c r="R4" s="37" t="n">
-        <v>0</v>
+        <v>0.011475</v>
       </c>
       <c r="S4" s="37" t="n">
-        <v>0</v>
+        <v>0.003825</v>
       </c>
       <c r="T4" s="37" t="n">
-        <v>0</v>
+        <v>0.003825</v>
       </c>
       <c r="U4" s="37" t="n">
-        <v>0</v>
+        <v>0.003825</v>
       </c>
       <c r="V4" s="37" t="n">
-        <v>0</v>
+        <v>0.011475</v>
       </c>
       <c r="W4" s="37" t="n">
-        <v>0</v>
+        <v>0.0459</v>
       </c>
     </row>
   </sheetData>
@@ -13827,9 +13870,7 @@
       <c r="N3" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="O3" s="39" t="n">
-        <v>0</v>
-      </c>
+      <c r="O3" s="39"/>
       <c r="P3" s="39" t="n">
         <v>0</v>
       </c>
@@ -14167,7 +14208,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.7895</v>
+        <v>0.8108</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -14238,7 +14279,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.7895</v>
+        <v>0.8108</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -14309,7 +14350,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.7895</v>
+        <v>0.8108</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -14339,31 +14380,31 @@
         <v>0.303</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.131583333333333</v>
+        <v>0</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.131583333333333</v>
+        <v>0.115825</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.131583333333333</v>
+        <v>0.115825</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.39475</v>
+        <v>0.347475</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.131583333333333</v>
+        <v>0.115825</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>0.131583333333333</v>
+        <v>0.115825</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>0.131583333333333</v>
+        <v>0.115825</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.39475</v>
+        <v>0.347475</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>1.579</v>
+        <v>1.3899</v>
       </c>
     </row>
   </sheetData>
@@ -14541,9 +14582,7 @@
       <c r="N3" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="O3" s="40" t="n">
-        <v>0</v>
-      </c>
+      <c r="O3" s="40"/>
       <c r="P3" s="40" t="n">
         <v>0</v>
       </c>
@@ -14566,6 +14605,61 @@
         <v>0</v>
       </c>
       <c r="W3" s="40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15475,9 +15569,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="5" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="O7" s="5"/>
       <c r="P7" s="5" t="n">
         <v>0.666666666666667</v>
       </c>
@@ -15517,7 +15609,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0529</v>
+        <v>0.0674</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -15588,7 +15680,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0529</v>
+        <v>0.0674</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -15659,7 +15751,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.0529</v>
+        <v>0.0674</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -15689,31 +15781,31 @@
         <v>0.0224</v>
       </c>
       <c r="O10" s="5" t="n">
-        <v>0.00881666666666667</v>
+        <v>0.0142</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0.00881666666666667</v>
+        <v>0.009625</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>0.00881666666666667</v>
+        <v>0.009625</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>0.02645</v>
+        <v>0.028875</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0.00881666666666667</v>
+        <v>0.009625</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>0.00881666666666667</v>
+        <v>0.009625</v>
       </c>
       <c r="U10" s="5" t="n">
-        <v>0.00881666666666667</v>
+        <v>0.009625</v>
       </c>
       <c r="V10" s="5" t="n">
-        <v>0.02645</v>
+        <v>0.028875</v>
       </c>
       <c r="W10" s="5" t="n">
-        <v>0.1058</v>
+        <v>0.1155</v>
       </c>
     </row>
   </sheetData>
@@ -15815,7 +15907,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.0129</v>
+        <v>0.0392</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -15886,7 +15978,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.0129</v>
+        <v>0.0392</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -15957,7 +16049,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.0129</v>
+        <v>0.0392</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -15975,7 +16067,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="6" t="n">
-        <v>0.0128</v>
+        <v>0.013</v>
       </c>
       <c r="L4" s="6" t="n">
         <v>0</v>
@@ -15984,34 +16076,34 @@
         <v>0</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0129</v>
+        <v>0.0131</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00215</v>
+        <v>0.0263</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.00215</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.00215</v>
+        <v>0</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.00645</v>
+        <v>0</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.00215</v>
+        <v>0</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.00215</v>
+        <v>0</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.00215</v>
+        <v>0</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00645</v>
+        <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -16215,7 +16307,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0554</v>
+        <v>0.0556</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -16286,7 +16378,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0554</v>
+        <v>0.0556</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -16357,7 +16449,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.0554</v>
+        <v>0.0556</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -16387,31 +16479,31 @@
         <v>0.019</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00923333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.00923333333333333</v>
+        <v>0.00794166666666667</v>
       </c>
       <c r="Q10" s="6" t="n">
-        <v>0.00923333333333333</v>
+        <v>0.00794166666666667</v>
       </c>
       <c r="R10" s="6" t="n">
-        <v>0.0277</v>
+        <v>0.023825</v>
       </c>
       <c r="S10" s="6" t="n">
-        <v>0.00923333333333333</v>
+        <v>0.00794166666666667</v>
       </c>
       <c r="T10" s="6" t="n">
-        <v>0.00923333333333333</v>
+        <v>0.00794166666666667</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.00923333333333333</v>
+        <v>0.00794166666666667</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0277</v>
+        <v>0.023825</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1108</v>
+        <v>0.0953</v>
       </c>
     </row>
   </sheetData>
@@ -16513,7 +16605,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.1765</v>
+        <v>0.1852</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -16584,7 +16676,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.1765</v>
+        <v>0.1852</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -16655,7 +16747,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.1765</v>
+        <v>0.1852</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -16667,49 +16759,49 @@
         <v>0</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>0.0286</v>
+        <v>0.0294</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.028</v>
+        <v>0.0288</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>0.0294</v>
+        <v>0.0303</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>0.0938</v>
+        <v>0.0968</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0.0323</v>
+        <v>0.0333</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.1548</v>
+        <v>0.1597</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.0294166666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.0294166666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.0294166666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.08825</v>
+        <v>0</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.0294166666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.0294166666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.0294166666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.08825</v>
+        <v>0</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0.353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -16848,7 +16940,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.0377</v>
+        <v>0.0446</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -16919,7 +17011,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.0377</v>
+        <v>0.0446</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -16990,7 +17082,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0.0377</v>
+        <v>0.0446</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -17014,37 +17106,37 @@
         <v>0</v>
       </c>
       <c r="M9" s="7" t="n">
+        <v>0.0556</v>
+      </c>
+      <c r="N9" s="7" t="n">
         <v>0.0476</v>
       </c>
-      <c r="N9" s="7" t="n">
-        <v>0.0417</v>
-      </c>
       <c r="O9" s="7" t="n">
-        <v>0.00628333333333333</v>
+        <v>0</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>0.00628333333333333</v>
+        <v>0.006375</v>
       </c>
       <c r="Q9" s="7" t="n">
-        <v>0.00628333333333333</v>
+        <v>0.006375</v>
       </c>
       <c r="R9" s="7" t="n">
-        <v>0.01885</v>
+        <v>0.019125</v>
       </c>
       <c r="S9" s="7" t="n">
-        <v>0.00628333333333333</v>
+        <v>0.006375</v>
       </c>
       <c r="T9" s="7" t="n">
-        <v>0.00628333333333333</v>
+        <v>0.006375</v>
       </c>
       <c r="U9" s="7" t="n">
-        <v>0.00628333333333333</v>
+        <v>0.006375</v>
       </c>
       <c r="V9" s="7" t="n">
-        <v>0.01885</v>
+        <v>0.019125</v>
       </c>
       <c r="W9" s="7" t="n">
-        <v>0.0754</v>
+        <v>0.0765</v>
       </c>
     </row>
   </sheetData>
@@ -17657,7 +17749,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.5556</v>
+        <v>0.5263</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -17728,7 +17820,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>0.5556</v>
+        <v>0.5263</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -17799,7 +17891,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>0.5556</v>
+        <v>0.5263</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -17829,31 +17921,31 @@
         <v>0.5882</v>
       </c>
       <c r="O7" s="9" t="n">
-        <v>0.0926</v>
+        <v>0</v>
       </c>
       <c r="P7" s="9" t="n">
-        <v>0.0926</v>
+        <v>0.0751833333333333</v>
       </c>
       <c r="Q7" s="9" t="n">
-        <v>0.0926</v>
+        <v>0.0751833333333333</v>
       </c>
       <c r="R7" s="9" t="n">
-        <v>0.2778</v>
+        <v>0.22555</v>
       </c>
       <c r="S7" s="9" t="n">
-        <v>0.0926</v>
+        <v>0.0751833333333333</v>
       </c>
       <c r="T7" s="9" t="n">
-        <v>0.0926</v>
+        <v>0.0751833333333333</v>
       </c>
       <c r="U7" s="9" t="n">
-        <v>0.0926</v>
+        <v>0.0751833333333333</v>
       </c>
       <c r="V7" s="9" t="n">
-        <v>0.2778</v>
+        <v>0.22555</v>
       </c>
       <c r="W7" s="9" t="n">
-        <v>1.1112</v>
+        <v>0.9022</v>
       </c>
     </row>
   </sheetData>
